--- a/PERSONAL BUSINESS/BUDGET 2023.xlsx
+++ b/PERSONAL BUSINESS/BUDGET 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Creative Cloud Files\Desktop\PERSONAL BUSINESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E98D1B-3E6F-459D-8D15-C81CB49FA7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CBCF8C-CE22-4BD8-B632-784166FB493C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="November" sheetId="16" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="February" sheetId="4" r:id="rId10"/>
     <sheet name="January" sheetId="1" r:id="rId11"/>
     <sheet name="New Template" sheetId="5" r:id="rId12"/>
+    <sheet name="QUOTA" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="305">
   <si>
     <t>Month</t>
   </si>
@@ -891,18 +892,112 @@
   </si>
   <si>
     <t>Transpo pauwi bacoor</t>
+  </si>
+  <si>
+    <t>Joyride</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>transpo work/gala</t>
+  </si>
+  <si>
+    <t>PDC Joyride b2b</t>
+  </si>
+  <si>
+    <t>give father</t>
+  </si>
+  <si>
+    <t>Save used</t>
+  </si>
+  <si>
+    <t>Safety Gear</t>
+  </si>
+  <si>
+    <t>Gloves</t>
+  </si>
+  <si>
+    <t>inom</t>
+  </si>
+  <si>
+    <t>inom harisson</t>
+  </si>
+  <si>
+    <t>dasma</t>
+  </si>
+  <si>
+    <t>fries walter</t>
+  </si>
+  <si>
+    <t>softdrinks</t>
+  </si>
+  <si>
+    <t>gcash cashout</t>
+  </si>
+  <si>
+    <t>ballpen</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>transpo bacoor</t>
+  </si>
+  <si>
+    <t>LTO getting non pro liscence</t>
+  </si>
+  <si>
+    <t>bacoor get motor joyride</t>
+  </si>
+  <si>
+    <t>sahod</t>
+  </si>
+  <si>
+    <t>BUSINESS</t>
+  </si>
+  <si>
+    <t>EXPECTED SALARY</t>
+  </si>
+  <si>
+    <t>LIABILITIES</t>
+  </si>
+  <si>
+    <t>SAVINGS</t>
+  </si>
+  <si>
+    <t>MOTOR</t>
+  </si>
+  <si>
+    <t>TUTION</t>
+  </si>
+  <si>
+    <t>SUM NEEDED</t>
+  </si>
+  <si>
+    <t>october</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>QUOTA</t>
+  </si>
+  <si>
+    <t>SALARY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="[$PHP]\ #,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$₱-464]#,##0.00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1107,7 +1202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1282,12 +1377,6 @@
     <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1309,59 +1398,22 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="110">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1813,6 +1865,53 @@
     <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1832,20 +1931,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{3D700328-EEF0-4606-AB20-1459CEBC7012}" name="Table145413" displayName="Table145413" ref="A1:I49" totalsRowShown="0" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{3D700328-EEF0-4606-AB20-1459CEBC7012}" name="Table145413" displayName="Table145413" ref="A1:I49" totalsRowShown="0" dataDxfId="109">
   <autoFilter ref="A1:I49" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B697104A-21B4-4B52-8046-2AB228398322}" name="Month" dataDxfId="8">
+    <tableColumn id="1" xr3:uid="{B697104A-21B4-4B52-8046-2AB228398322}" name="Month" dataDxfId="108">
       <calculatedColumnFormula>MONTH(Table145413[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A138A46A-8629-483F-B9A0-2644257DFF90}" name="Date" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{FB9320A9-AACE-48D4-AA25-11A09135A2A9}" name="Description" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{7BA5992F-2867-4505-AE08-7A08AB031ADE}" name="Category" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{CC34E3D2-23F1-4480-A6C6-C68C3197F175}" name="Income" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{DF6B3420-220F-465A-86FD-EB13FDBED3FC}" name="Debits" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{FD7021AC-B827-4FA0-B9AB-9352E48F8B34}" name="Balance" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{2206692C-A62A-47AD-899F-75D5ED4C0D49}" name="Month for Savings" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{40B5A238-01BD-44E2-8AF3-F51C0A39D9DF}" name="Savings Balance" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{A138A46A-8629-483F-B9A0-2644257DFF90}" name="Date" dataDxfId="107"/>
+    <tableColumn id="3" xr3:uid="{FB9320A9-AACE-48D4-AA25-11A09135A2A9}" name="Description" dataDxfId="106"/>
+    <tableColumn id="4" xr3:uid="{7BA5992F-2867-4505-AE08-7A08AB031ADE}" name="Category" dataDxfId="105"/>
+    <tableColumn id="5" xr3:uid="{CC34E3D2-23F1-4480-A6C6-C68C3197F175}" name="Income" dataDxfId="104"/>
+    <tableColumn id="6" xr3:uid="{DF6B3420-220F-465A-86FD-EB13FDBED3FC}" name="Debits" dataDxfId="103"/>
+    <tableColumn id="7" xr3:uid="{FD7021AC-B827-4FA0-B9AB-9352E48F8B34}" name="Balance" dataDxfId="102"/>
+    <tableColumn id="8" xr3:uid="{2206692C-A62A-47AD-899F-75D5ED4C0D49}" name="Month for Savings" dataDxfId="101"/>
+    <tableColumn id="9" xr3:uid="{40B5A238-01BD-44E2-8AF3-F51C0A39D9DF}" name="Savings Balance" dataDxfId="100">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1857,15 +1956,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1455" displayName="Table1455" ref="A1:G49" totalsRowShown="0">
   <autoFilter ref="A1:G49" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Month" dataDxfId="29">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Month" dataDxfId="19">
       <calculatedColumnFormula>MONTH(Table1455[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="18"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Category"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Income" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Debits" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Balance" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Income" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Debits" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Balance" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1875,35 +1974,35 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1458" displayName="Table1458" ref="A1:G52" totalsRowShown="0">
   <autoFilter ref="A1:G52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Month" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Month" dataDxfId="14">
       <calculatedColumnFormula>MONTH(Table1458[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Category"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Income" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Debits" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Balance" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Income" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Debits" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Balance" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1454" displayName="Table1454" ref="A1:I49" totalsRowShown="0" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1454" displayName="Table1454" ref="A1:I49" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="A1:I49" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Month" dataDxfId="18">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Month" dataDxfId="8">
       <calculatedColumnFormula>MONTH(Table1454[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Description" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Category" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Income" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Debits" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Balance" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Month for Savings" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Savings Balance" dataDxfId="10">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Description" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Category" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Income" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Debits" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Balance" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Month for Savings" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Savings Balance" dataDxfId="0">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1912,20 +2011,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A3D21E48-5B69-4EF4-A431-A43CB89FF727}" name="Table145411" displayName="Table145411" ref="A1:I73" totalsRowShown="0" dataDxfId="109">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A3D21E48-5B69-4EF4-A431-A43CB89FF727}" name="Table145411" displayName="Table145411" ref="A1:I73" totalsRowShown="0" dataDxfId="99">
   <autoFilter ref="A1:I73" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{FA65A469-3BD5-4CD4-A9BE-C78F5416F0F5}" name="Month" dataDxfId="108">
+    <tableColumn id="1" xr3:uid="{FA65A469-3BD5-4CD4-A9BE-C78F5416F0F5}" name="Month" dataDxfId="98">
       <calculatedColumnFormula>MONTH(Table145411[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{415B598F-4B8E-4FDE-AB11-59439F144445}" name="Date" dataDxfId="107"/>
-    <tableColumn id="3" xr3:uid="{BACB319A-8935-48EB-A40A-E08306969B0F}" name="Description" dataDxfId="106"/>
-    <tableColumn id="4" xr3:uid="{C8AE8D6C-1620-425F-82AC-67F6CBF7BD7A}" name="Category" dataDxfId="105"/>
-    <tableColumn id="5" xr3:uid="{E3D4505C-CD25-4627-A0F7-E9BE49CBEC9A}" name="Income" dataDxfId="104"/>
-    <tableColumn id="6" xr3:uid="{104A5A9A-EA07-425C-B220-6F42FBA892F0}" name="Debits" dataDxfId="103"/>
-    <tableColumn id="7" xr3:uid="{051A20BC-BD5A-4DB9-895F-3B8B4C29A949}" name="Balance" dataDxfId="102"/>
-    <tableColumn id="8" xr3:uid="{473D0809-882D-449A-A2F1-251D66885BCB}" name="Month for Savings" dataDxfId="101"/>
-    <tableColumn id="9" xr3:uid="{5CEA2D70-4596-4727-95A1-51A5B7EC598A}" name="Savings Balance" dataDxfId="100">
+    <tableColumn id="2" xr3:uid="{415B598F-4B8E-4FDE-AB11-59439F144445}" name="Date" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{BACB319A-8935-48EB-A40A-E08306969B0F}" name="Description" dataDxfId="96"/>
+    <tableColumn id="4" xr3:uid="{C8AE8D6C-1620-425F-82AC-67F6CBF7BD7A}" name="Category" dataDxfId="95"/>
+    <tableColumn id="5" xr3:uid="{E3D4505C-CD25-4627-A0F7-E9BE49CBEC9A}" name="Income" dataDxfId="94"/>
+    <tableColumn id="6" xr3:uid="{104A5A9A-EA07-425C-B220-6F42FBA892F0}" name="Debits" dataDxfId="93"/>
+    <tableColumn id="7" xr3:uid="{051A20BC-BD5A-4DB9-895F-3B8B4C29A949}" name="Balance" dataDxfId="92"/>
+    <tableColumn id="8" xr3:uid="{473D0809-882D-449A-A2F1-251D66885BCB}" name="Month for Savings" dataDxfId="91"/>
+    <tableColumn id="9" xr3:uid="{5CEA2D70-4596-4727-95A1-51A5B7EC598A}" name="Savings Balance" dataDxfId="90">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1934,20 +2033,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{57C387B4-F479-4A68-83C6-3827DA05418C}" name="Table145410" displayName="Table145410" ref="A1:I73" totalsRowShown="0" dataDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{57C387B4-F479-4A68-83C6-3827DA05418C}" name="Table145410" displayName="Table145410" ref="A1:I73" totalsRowShown="0" dataDxfId="89">
   <autoFilter ref="A1:I73" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{16BBC92E-0A72-4512-A5DD-8503BE687CB4}" name="Month" dataDxfId="98">
+    <tableColumn id="1" xr3:uid="{16BBC92E-0A72-4512-A5DD-8503BE687CB4}" name="Month" dataDxfId="88">
       <calculatedColumnFormula>MONTH(Table145410[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{3D5B90CD-BAE5-4B3B-91DD-F48031CC29A4}" name="Date" dataDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{EED3B27F-F2E3-4E0E-B8FF-58BE12DA46BB}" name="Description" dataDxfId="96"/>
-    <tableColumn id="4" xr3:uid="{6312F0ED-D934-4B41-89DC-AC693A952D8A}" name="Category" dataDxfId="95"/>
-    <tableColumn id="5" xr3:uid="{2103876E-E59C-47C6-B7D3-F631C8103F2F}" name="Income" dataDxfId="94"/>
-    <tableColumn id="6" xr3:uid="{0680F844-B969-438D-AFF2-94F78E13FE7A}" name="Debits" dataDxfId="93"/>
-    <tableColumn id="7" xr3:uid="{2BEEB7A1-E04A-48F7-A68A-FF2CFBCC0FF1}" name="Balance" dataDxfId="92"/>
-    <tableColumn id="8" xr3:uid="{38E6F2DF-F5DC-4472-B76B-0F06D00E9D42}" name="Month for Savings" dataDxfId="91"/>
-    <tableColumn id="9" xr3:uid="{3A3E9865-7E03-4F41-AC3C-B86242DFFF90}" name="Savings Balance" dataDxfId="90">
+    <tableColumn id="2" xr3:uid="{3D5B90CD-BAE5-4B3B-91DD-F48031CC29A4}" name="Date" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{EED3B27F-F2E3-4E0E-B8FF-58BE12DA46BB}" name="Description" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{6312F0ED-D934-4B41-89DC-AC693A952D8A}" name="Category" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{2103876E-E59C-47C6-B7D3-F631C8103F2F}" name="Income" dataDxfId="84"/>
+    <tableColumn id="6" xr3:uid="{0680F844-B969-438D-AFF2-94F78E13FE7A}" name="Debits" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{2BEEB7A1-E04A-48F7-A68A-FF2CFBCC0FF1}" name="Balance" dataDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{38E6F2DF-F5DC-4472-B76B-0F06D00E9D42}" name="Month for Savings" dataDxfId="81"/>
+    <tableColumn id="9" xr3:uid="{3A3E9865-7E03-4F41-AC3C-B86242DFFF90}" name="Savings Balance" dataDxfId="80">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1956,20 +2055,20 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A4388F45-9023-46F6-B5A4-D3D68DF39259}" name="Table145412" displayName="Table145412" ref="A1:I49" totalsRowShown="0" dataDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A4388F45-9023-46F6-B5A4-D3D68DF39259}" name="Table145412" displayName="Table145412" ref="A1:I49" totalsRowShown="0" dataDxfId="79">
   <autoFilter ref="A1:I49" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{17ACED23-DA02-4BF2-A8DD-C01534A9DAA7}" name="Month" dataDxfId="88">
+    <tableColumn id="1" xr3:uid="{17ACED23-DA02-4BF2-A8DD-C01534A9DAA7}" name="Month" dataDxfId="78">
       <calculatedColumnFormula>MONTH(Table145412[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{AE8E1816-FEDA-4D33-B0BE-081C3B49612D}" name="Date" dataDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{6C344308-297A-43C0-A31B-5241FFB594F2}" name="Description" dataDxfId="86"/>
-    <tableColumn id="4" xr3:uid="{D0FBBD0A-016B-4151-A394-E845CBAC8928}" name="Category" dataDxfId="85"/>
-    <tableColumn id="5" xr3:uid="{0FF5BE46-E2F7-44A9-B3C1-71CC37BD9D63}" name="Income" dataDxfId="84"/>
-    <tableColumn id="6" xr3:uid="{E423D8A9-890B-4A6D-9B3F-37D76EDB6FC0}" name="Debits" dataDxfId="83"/>
-    <tableColumn id="7" xr3:uid="{499EE5AD-D8BA-4F1A-93C2-36CCCFA07F5B}" name="Balance" dataDxfId="82"/>
-    <tableColumn id="8" xr3:uid="{B6A77639-F979-40DA-8689-FB76E0A316F5}" name="Month for Savings" dataDxfId="81"/>
-    <tableColumn id="9" xr3:uid="{5AB60A72-C973-45F1-82C8-9C180F917521}" name="Savings Balance" dataDxfId="80">
+    <tableColumn id="2" xr3:uid="{AE8E1816-FEDA-4D33-B0BE-081C3B49612D}" name="Date" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{6C344308-297A-43C0-A31B-5241FFB594F2}" name="Description" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{D0FBBD0A-016B-4151-A394-E845CBAC8928}" name="Category" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{0FF5BE46-E2F7-44A9-B3C1-71CC37BD9D63}" name="Income" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{E423D8A9-890B-4A6D-9B3F-37D76EDB6FC0}" name="Debits" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{499EE5AD-D8BA-4F1A-93C2-36CCCFA07F5B}" name="Balance" dataDxfId="72"/>
+    <tableColumn id="8" xr3:uid="{B6A77639-F979-40DA-8689-FB76E0A316F5}" name="Month for Savings" dataDxfId="71"/>
+    <tableColumn id="9" xr3:uid="{5AB60A72-C973-45F1-82C8-9C180F917521}" name="Savings Balance" dataDxfId="70">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1978,20 +2077,20 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{840BC7C5-42EC-4A00-B86C-6D75E31821B4}" name="Table14549" displayName="Table14549" ref="A1:I49" totalsRowShown="0" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{840BC7C5-42EC-4A00-B86C-6D75E31821B4}" name="Table14549" displayName="Table14549" ref="A1:I49" totalsRowShown="0" dataDxfId="69">
   <autoFilter ref="A1:I49" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A5899E45-A1AD-438E-8C04-4809B35B66DB}" name="Month" dataDxfId="78">
+    <tableColumn id="1" xr3:uid="{A5899E45-A1AD-438E-8C04-4809B35B66DB}" name="Month" dataDxfId="68">
       <calculatedColumnFormula>MONTH(Table14549[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D38B047B-6499-4E6D-A1DF-3DDE583B403D}" name="Date" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{95411460-F2B2-46A8-898C-0D1CB24B44E7}" name="Description" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{A6F2159B-E0E7-4792-8AE9-1652D6903EFB}" name="Category" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{647351B9-0FA7-4A2B-A85E-C4A8FF13EB44}" name="Income" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{25F4E89E-B145-4846-B8A1-54FB9270BB17}" name="Debits" dataDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{2385595E-DB07-4602-8441-8BE64EE4D10A}" name="Balance" dataDxfId="72"/>
-    <tableColumn id="8" xr3:uid="{A5DAA906-AF2D-4A85-9A6F-2F2E0324BA6F}" name="Month for Savings" dataDxfId="71"/>
-    <tableColumn id="9" xr3:uid="{A49C9190-B837-4A2F-AAA4-F4CDB1BDB2DD}" name="Savings Balance" dataDxfId="70">
+    <tableColumn id="2" xr3:uid="{D38B047B-6499-4E6D-A1DF-3DDE583B403D}" name="Date" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{95411460-F2B2-46A8-898C-0D1CB24B44E7}" name="Description" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{A6F2159B-E0E7-4792-8AE9-1652D6903EFB}" name="Category" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{647351B9-0FA7-4A2B-A85E-C4A8FF13EB44}" name="Income" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{25F4E89E-B145-4846-B8A1-54FB9270BB17}" name="Debits" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{2385595E-DB07-4602-8441-8BE64EE4D10A}" name="Balance" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{A5DAA906-AF2D-4A85-9A6F-2F2E0324BA6F}" name="Month for Savings" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{A49C9190-B837-4A2F-AAA4-F4CDB1BDB2DD}" name="Savings Balance" dataDxfId="60">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2000,20 +2099,20 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AE525568-F672-4A92-85D0-9D1023DE7A01}" name="Table14548" displayName="Table14548" ref="A1:I63" totalsRowShown="0" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AE525568-F672-4A92-85D0-9D1023DE7A01}" name="Table14548" displayName="Table14548" ref="A1:I63" totalsRowShown="0" dataDxfId="59">
   <autoFilter ref="A1:I63" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B74A68BF-5F18-40BE-9DC8-7AAB5490A613}" name="Month" dataDxfId="68">
+    <tableColumn id="1" xr3:uid="{B74A68BF-5F18-40BE-9DC8-7AAB5490A613}" name="Month" dataDxfId="58">
       <calculatedColumnFormula>MONTH(Table14548[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{065BCCFE-C43A-41AB-B4E0-4C03F9C75A7A}" name="Date" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{8317177F-31C3-423B-A3D7-244E0D6DB701}" name="Description" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{3D6B9DFD-70D5-48C5-B2A8-F6BE2C25A321}" name="Category" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{A981147C-0662-4052-B864-D654D08960E1}" name="Income" dataDxfId="64"/>
-    <tableColumn id="6" xr3:uid="{5CCA7DCB-2197-4873-AFD4-74B3ED796F2B}" name="Debits" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{EEBDE90B-C10B-4E35-A17A-22F84445E41F}" name="Balance" dataDxfId="62"/>
-    <tableColumn id="8" xr3:uid="{9A4B5BF9-9C1F-4890-B960-7E449D45A302}" name="Month for Savings" dataDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{AE750CED-6C12-49BC-ABE6-71051806BF98}" name="Savings Balance" dataDxfId="60">
+    <tableColumn id="2" xr3:uid="{065BCCFE-C43A-41AB-B4E0-4C03F9C75A7A}" name="Date" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{8317177F-31C3-423B-A3D7-244E0D6DB701}" name="Description" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{3D6B9DFD-70D5-48C5-B2A8-F6BE2C25A321}" name="Category" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{A981147C-0662-4052-B864-D654D08960E1}" name="Income" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{5CCA7DCB-2197-4873-AFD4-74B3ED796F2B}" name="Debits" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{EEBDE90B-C10B-4E35-A17A-22F84445E41F}" name="Balance" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{9A4B5BF9-9C1F-4890-B960-7E449D45A302}" name="Month for Savings" dataDxfId="51"/>
+    <tableColumn id="9" xr3:uid="{AE750CED-6C12-49BC-ABE6-71051806BF98}" name="Savings Balance" dataDxfId="50">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2022,20 +2121,20 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6A997058-3010-49BB-AB6D-620C72DD3613}" name="Table145467" displayName="Table145467" ref="A1:I49" totalsRowShown="0" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6A997058-3010-49BB-AB6D-620C72DD3613}" name="Table145467" displayName="Table145467" ref="A1:I49" totalsRowShown="0" dataDxfId="49">
   <autoFilter ref="A1:I49" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{4942BF4B-BBB2-42FE-AE6E-DC39975A0585}" name="Month" dataDxfId="58">
+    <tableColumn id="1" xr3:uid="{4942BF4B-BBB2-42FE-AE6E-DC39975A0585}" name="Month" dataDxfId="48">
       <calculatedColumnFormula>MONTH(Table145467[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C03BF1B6-5BF5-4C97-AE15-CB80E2A72139}" name="Date" dataDxfId="57"/>
-    <tableColumn id="3" xr3:uid="{976567C0-A8A1-49E5-B711-DD2D258A8C9D}" name="Description" dataDxfId="56"/>
-    <tableColumn id="4" xr3:uid="{D2F94893-33CA-458A-9686-1EE8E7DA8A5B}" name="Category" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{10C86F8A-201E-493E-9050-43A2F85E7CF6}" name="Income" dataDxfId="54"/>
-    <tableColumn id="6" xr3:uid="{F79FDB7D-7BF1-4A99-BD6E-44DD0393C805}" name="Debits" dataDxfId="53"/>
-    <tableColumn id="7" xr3:uid="{E0CAF5FD-F6CC-471B-B1DD-D6D9D50AD369}" name="Balance" dataDxfId="52"/>
-    <tableColumn id="8" xr3:uid="{49BCF1B3-DE27-47A4-9F8A-008ACE1382CB}" name="Month for Savings" dataDxfId="51"/>
-    <tableColumn id="9" xr3:uid="{5B25FFCD-7C30-47EE-81FE-1CC6AB8450F7}" name="Savings Balance" dataDxfId="50">
+    <tableColumn id="2" xr3:uid="{C03BF1B6-5BF5-4C97-AE15-CB80E2A72139}" name="Date" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{976567C0-A8A1-49E5-B711-DD2D258A8C9D}" name="Description" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{D2F94893-33CA-458A-9686-1EE8E7DA8A5B}" name="Category" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{10C86F8A-201E-493E-9050-43A2F85E7CF6}" name="Income" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{F79FDB7D-7BF1-4A99-BD6E-44DD0393C805}" name="Debits" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{E0CAF5FD-F6CC-471B-B1DD-D6D9D50AD369}" name="Balance" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{49BCF1B3-DE27-47A4-9F8A-008ACE1382CB}" name="Month for Savings" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{5B25FFCD-7C30-47EE-81FE-1CC6AB8450F7}" name="Savings Balance" dataDxfId="40">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2044,20 +2143,20 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F78A6626-0ECB-4761-94F1-5E34C061D16E}" name="Table14546" displayName="Table14546" ref="A1:I49" totalsRowShown="0" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F78A6626-0ECB-4761-94F1-5E34C061D16E}" name="Table14546" displayName="Table14546" ref="A1:I49" totalsRowShown="0" dataDxfId="39">
   <autoFilter ref="A1:I49" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{76392CED-406E-493F-AFDB-826D1CBFE8E0}" name="Month" dataDxfId="48">
+    <tableColumn id="1" xr3:uid="{76392CED-406E-493F-AFDB-826D1CBFE8E0}" name="Month" dataDxfId="38">
       <calculatedColumnFormula>MONTH(Table14546[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{4C7E220F-8EBA-40F4-8FE3-8857C16E13DF}" name="Date" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{5097F152-C30C-40BB-A5E0-4A9612F5B7BF}" name="Description" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{F0331F5E-B137-405B-993B-68FB0A342EF7}" name="Category" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{0D5D53CF-A386-4722-9130-16379B19CEF3}" name="Income" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{D44F1476-831E-4C59-919D-476B80977BC5}" name="Debits" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{3F58EAD0-7821-49C3-ABAF-62A25398F83B}" name="Balance" dataDxfId="42"/>
-    <tableColumn id="8" xr3:uid="{ACFC8E53-D247-452B-98C1-9FA884FF08FF}" name="Month for Savings" dataDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{CE379B86-E512-4994-B613-CE65737DDBB7}" name="Savings Balance" dataDxfId="40">
+    <tableColumn id="2" xr3:uid="{4C7E220F-8EBA-40F4-8FE3-8857C16E13DF}" name="Date" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{5097F152-C30C-40BB-A5E0-4A9612F5B7BF}" name="Description" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{F0331F5E-B137-405B-993B-68FB0A342EF7}" name="Category" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{0D5D53CF-A386-4722-9130-16379B19CEF3}" name="Income" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{D44F1476-831E-4C59-919D-476B80977BC5}" name="Debits" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{3F58EAD0-7821-49C3-ABAF-62A25398F83B}" name="Balance" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{ACFC8E53-D247-452B-98C1-9FA884FF08FF}" name="Month for Savings" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{CE379B86-E512-4994-B613-CE65737DDBB7}" name="Savings Balance" dataDxfId="30">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2066,20 +2165,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{10265E97-EDC2-479F-B12E-823C0161B925}" name="Table14543" displayName="Table14543" ref="A1:I49" totalsRowShown="0" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{10265E97-EDC2-479F-B12E-823C0161B925}" name="Table14543" displayName="Table14543" ref="A1:I49" totalsRowShown="0" dataDxfId="29">
   <autoFilter ref="A1:I49" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F3498696-B7B2-4E1A-8054-B9E763EF3672}" name="Month" dataDxfId="38">
+    <tableColumn id="1" xr3:uid="{F3498696-B7B2-4E1A-8054-B9E763EF3672}" name="Month" dataDxfId="28">
       <calculatedColumnFormula>MONTH(Table14543[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DCB90096-3235-42A7-9FA2-A497B4110253}" name="Date" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{0B65F2E5-8190-4EF3-A591-EF9A15A13761}" name="Description" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{C90ED4C6-65BC-4114-B681-C1CB69377A58}" name="Category" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{502C1345-43D1-4244-9595-23CB3A0F2EA8}" name="Income" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{51881B59-02C3-40B4-9B06-8B76BF9A798C}" name="Debits" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{4C26C5AD-A38E-488A-BD9F-2BFB6F92D02A}" name="Balance" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{E5A7B637-1C8D-40A1-BA64-0D0900577951}" name="Month for Savings" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{7E867581-DA98-4395-8148-9533395639B4}" name="Savings Balance" dataDxfId="30">
+    <tableColumn id="2" xr3:uid="{DCB90096-3235-42A7-9FA2-A497B4110253}" name="Date" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{0B65F2E5-8190-4EF3-A591-EF9A15A13761}" name="Description" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{C90ED4C6-65BC-4114-B681-C1CB69377A58}" name="Category" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{502C1345-43D1-4244-9595-23CB3A0F2EA8}" name="Income" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{51881B59-02C3-40B4-9B06-8B76BF9A798C}" name="Debits" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{4C26C5AD-A38E-488A-BD9F-2BFB6F92D02A}" name="Balance" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{E5A7B637-1C8D-40A1-BA64-0D0900577951}" name="Month for Savings" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{7E867581-DA98-4395-8148-9533395639B4}" name="Savings Balance" dataDxfId="20">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2389,8 +2488,8 @@
   </sheetPr>
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2527,7 +2626,7 @@
         <v>90</v>
       </c>
       <c r="I4" s="34">
-        <f t="shared" ref="I4:I15" si="0">SUM(K11)</f>
+        <f t="shared" ref="I4:I14" si="0">SUM(K11)</f>
         <v>0</v>
       </c>
       <c r="J4" s="5"/>
@@ -2548,16 +2647,24 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="25">
+        <v>45232</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
+      <c r="F5" s="27">
+        <v>190</v>
+      </c>
       <c r="G5" s="27">
         <f>SUM(G4+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>992</v>
       </c>
       <c r="H5" t="s">
         <v>91</v>
@@ -2572,10 +2679,10 @@
       </c>
       <c r="L5">
         <f>SUMIFS(Table145413[[#All],[Income]],Table145413[[#All],[Month]],K4,Table145413[[#All],[Category]],K5)</f>
-        <v>0</v>
+        <v>4562</v>
       </c>
       <c r="M5">
-        <v>10000</v>
+        <v>14155</v>
       </c>
       <c r="N5">
         <v>4000</v>
@@ -2585,16 +2692,24 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B6" s="25">
+        <v>45233</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
+      <c r="F6" s="27">
+        <v>83</v>
+      </c>
       <c r="G6" s="27">
         <f>SUM(G5+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>909</v>
       </c>
       <c r="H6" t="s">
         <v>92</v>
@@ -2609,26 +2724,34 @@
       </c>
       <c r="L6">
         <f>SUMIFS(Table145413[[#All],[Debits]],Table145413[[#All],[Month]],K4, Table145413[[#All],[Category]],K6)</f>
-        <v>0</v>
+        <v>2904</v>
       </c>
       <c r="M6">
-        <v>800</v>
+        <v>9000</v>
       </c>
       <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B7" s="25">
+        <v>45234</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
+      <c r="F7" s="27">
+        <v>100</v>
+      </c>
       <c r="G7" s="27">
         <f>SUM(G6+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>809</v>
       </c>
       <c r="H7" t="s">
         <v>93</v>
@@ -2643,26 +2766,34 @@
       </c>
       <c r="L7">
         <f>SUMIFS(Table145413[[#All],[Debits]],Table145413[[#All],[Month]],K4, Table145413[[#All],[Category]],K7)</f>
-        <v>18</v>
+        <v>2083</v>
       </c>
       <c r="M7">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B8" s="25">
+        <v>45234</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="F8" s="27">
+        <v>83</v>
+      </c>
       <c r="G8" s="27">
         <f>SUM(G7+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>726</v>
       </c>
       <c r="H8" t="s">
         <v>94</v>
@@ -2677,26 +2808,34 @@
       </c>
       <c r="L8">
         <f>SUMIFS(Table145413[[#All],[Debits]],Table145413[[#All],[Month]],K4, Table145413[[#All],[Category]],K8)</f>
-        <v>200</v>
+        <v>614</v>
       </c>
       <c r="M8">
-        <v>800</v>
+        <v>5000</v>
       </c>
       <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="B9" s="25">
+        <v>45235</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
+      <c r="F9" s="27">
+        <v>83</v>
+      </c>
       <c r="G9" s="27">
         <f>SUM(G8+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>643</v>
       </c>
       <c r="H9" t="s">
         <v>95</v>
@@ -2711,23 +2850,31 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="O9" s="5"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B10" s="25">
+        <v>45236</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
+      <c r="F10" s="27">
+        <v>83</v>
+      </c>
       <c r="G10" s="27">
         <f>SUM(G9+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>560</v>
       </c>
       <c r="H10" t="s">
         <v>96</v>
@@ -2742,7 +2889,7 @@
       </c>
       <c r="L10">
         <f>SUMIFS(Table145413[[#All],[Income]],Table145413[[#All],[Month]],K4,Table145413[[#All],[Category]],K10)</f>
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="M10">
         <v>10000</v>
@@ -2755,16 +2902,24 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B11" s="25">
+        <v>45237</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
+      <c r="F11" s="27">
+        <v>107</v>
+      </c>
       <c r="G11" s="27">
         <f>SUM(G10+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>453</v>
       </c>
       <c r="H11" t="s">
         <v>97</v>
@@ -2782,16 +2937,24 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="25">
+        <v>45238</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="F12" s="27">
+        <v>370</v>
+      </c>
       <c r="G12" s="27">
         <f>SUM(G11+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s">
         <v>98</v>
@@ -2806,23 +2969,31 @@
       <c r="L12" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="M12" s="82" t="s">
+      <c r="M12" s="80" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="25">
+        <v>45238</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="27">
+        <v>500</v>
+      </c>
       <c r="F13" s="27"/>
       <c r="G13" s="27">
         <f>SUM(G12+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>583</v>
       </c>
       <c r="H13" t="s">
         <v>99</v>
@@ -2833,30 +3004,38 @@
       </c>
       <c r="K13" s="2">
         <f>SUM(F2:F42)</f>
-        <v>218</v>
+        <v>5601</v>
       </c>
       <c r="L13" s="37">
         <f>SUM(Table145413[Savings Balance])</f>
         <v>7280</v>
       </c>
-      <c r="M13" s="83">
+      <c r="M13" s="81">
         <f>SUM(1921-1600)</f>
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="27"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="25">
+        <v>45238</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="27">
+        <v>1200</v>
+      </c>
       <c r="F14" s="27"/>
       <c r="G14" s="27">
         <f>SUM(G13+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>1783</v>
       </c>
       <c r="I14" s="38">
         <f t="shared" si="0"/>
@@ -2869,16 +3048,24 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="25">
+        <v>45238</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
+      <c r="F15" s="27">
+        <v>1480</v>
+      </c>
       <c r="G15" s="27">
         <f>SUM(G14+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>303</v>
       </c>
       <c r="H15" t="s">
         <v>190</v>
@@ -2891,19 +3078,27 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B16" s="25">
+        <v>45238</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+      <c r="F16" s="27">
+        <v>250</v>
+      </c>
       <c r="G16" s="27">
         <f>SUM(G15+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>53</v>
       </c>
       <c r="I16" s="38">
-        <f t="shared" ref="I4:I49" si="1">SUM(K23)</f>
+        <f t="shared" ref="I16:I49" si="1">SUM(K23)</f>
         <v>0</v>
       </c>
       <c r="K16" s="10">
@@ -2919,16 +3114,24 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="25">
+        <v>45238</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>9</v>
+      </c>
       <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
+      <c r="F17" s="27">
+        <v>145</v>
+      </c>
       <c r="G17" s="27">
         <f>SUM(G16+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>-92</v>
       </c>
       <c r="I17" s="35">
         <f t="shared" si="1"/>
@@ -2947,16 +3150,24 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="25">
+        <v>45239</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
+      <c r="F18" s="27">
+        <v>83</v>
+      </c>
       <c r="G18" s="27">
         <f>SUM(G17+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>-175</v>
       </c>
       <c r="I18" s="38">
         <f t="shared" si="1"/>
@@ -2966,16 +3177,24 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="25">
+        <v>45240</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
+      <c r="F19" s="27">
+        <v>83</v>
+      </c>
       <c r="G19" s="27">
         <f>SUM(G18+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>-258</v>
       </c>
       <c r="I19" s="35">
         <f t="shared" si="1"/>
@@ -2986,16 +3205,24 @@
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="B20" s="25">
+        <v>45241</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+      <c r="F20" s="27">
+        <v>83</v>
+      </c>
       <c r="G20" s="27">
         <f>SUM(G19+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>-341</v>
       </c>
       <c r="I20" s="38">
         <f t="shared" si="1"/>
@@ -3006,35 +3233,51 @@
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B21" s="25">
+        <v>45241</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
+      <c r="F21" s="27">
+        <v>100</v>
+      </c>
       <c r="G21" s="27">
         <f>SUM(G20+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>-441</v>
       </c>
       <c r="I21" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
+        <v>11</v>
+      </c>
+      <c r="B22" s="25">
+        <v>45242</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="27">
+        <v>2000</v>
+      </c>
       <c r="F22" s="27"/>
       <c r="G22" s="27">
         <f>SUM(G21+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>1559</v>
       </c>
       <c r="I22" s="38">
         <f t="shared" si="1"/>
@@ -3044,16 +3287,24 @@
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="B23" s="25">
+        <v>45242</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>11</v>
+      </c>
       <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
+      <c r="F23" s="27">
+        <v>100</v>
+      </c>
       <c r="G23" s="27">
         <f>SUM(G22+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>1459</v>
       </c>
       <c r="I23" s="35">
         <f t="shared" si="1"/>
@@ -3063,16 +3314,24 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B24" s="25">
+        <v>45242</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
+      <c r="F24" s="27">
+        <v>207</v>
+      </c>
       <c r="G24" s="27">
         <f>SUM(G23+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>1252</v>
       </c>
       <c r="I24" s="38">
         <f t="shared" si="1"/>
@@ -3082,39 +3341,55 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B25" s="25">
+        <v>45242</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
+      <c r="F25" s="27">
+        <v>90</v>
+      </c>
       <c r="G25" s="27">
         <f>SUM(G24+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>1162</v>
       </c>
       <c r="I25" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="74" t="s">
+      <c r="K25" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="74"/>
+      <c r="L25" s="83"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B26" s="25">
+        <v>45242</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
+      <c r="F26" s="27">
+        <v>24</v>
+      </c>
       <c r="G26" s="27">
         <f>SUM(G25+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>1138</v>
       </c>
       <c r="I26" s="38">
         <f t="shared" si="1"/>
@@ -3124,16 +3399,24 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B27" s="25">
+        <v>45243</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
+      <c r="F27" s="27">
+        <v>40</v>
+      </c>
       <c r="G27" s="27">
         <f>SUM(G26+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>1098</v>
       </c>
       <c r="I27" s="35">
         <f t="shared" si="1"/>
@@ -3143,16 +3426,24 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B28" s="25">
+        <v>45243</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
+      <c r="F28" s="27">
+        <v>15</v>
+      </c>
       <c r="G28" s="27">
         <f>SUM(G27+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>1083</v>
       </c>
       <c r="I28" s="38">
         <f t="shared" si="1"/>
@@ -3162,16 +3453,24 @@
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="B29" s="25">
+        <v>45243</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>9</v>
+      </c>
       <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
+      <c r="F29" s="27">
+        <v>89</v>
+      </c>
       <c r="G29" s="27">
         <f>SUM(G28+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>994</v>
       </c>
       <c r="I29" s="35">
         <f t="shared" si="1"/>
@@ -3181,16 +3480,24 @@
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B30" s="25">
+        <v>45243</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="D30" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
+      <c r="F30" s="27">
+        <v>84</v>
+      </c>
       <c r="G30" s="27">
         <f>SUM(G29+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>910</v>
       </c>
       <c r="I30" s="38">
         <f t="shared" si="1"/>
@@ -3200,16 +3507,24 @@
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B31" s="25">
+        <v>45243</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
+      <c r="F31" s="27">
+        <v>200</v>
+      </c>
       <c r="G31" s="27">
         <f>SUM(G30+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>710</v>
       </c>
       <c r="I31" s="35">
         <f t="shared" si="1"/>
@@ -3219,16 +3534,24 @@
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="B32" s="25">
+        <v>45244</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>244</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
+      <c r="F32" s="27">
+        <v>151</v>
+      </c>
       <c r="G32" s="27">
         <f>SUM(G31+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>559</v>
       </c>
       <c r="I32" s="38">
         <f t="shared" si="1"/>
@@ -3238,35 +3561,51 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27"/>
+        <v>11</v>
+      </c>
+      <c r="B33" s="25">
+        <v>45244</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="27">
+        <v>4062</v>
+      </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27">
         <f>SUM(G32+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>4621</v>
       </c>
       <c r="I33" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B34" s="25">
+        <v>45245</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
+      <c r="F34" s="27">
+        <v>885</v>
+      </c>
       <c r="G34" s="27">
         <f>SUM(G33+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>3736</v>
       </c>
       <c r="I34" s="38">
         <f t="shared" si="1"/>
@@ -3276,16 +3615,24 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="B35" s="25">
+        <v>45245</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
+      <c r="F35" s="27">
+        <v>175</v>
+      </c>
       <c r="G35" s="27">
         <f>SUM(G34+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>3561</v>
       </c>
       <c r="I35" s="35">
         <f t="shared" si="1"/>
@@ -3304,7 +3651,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="27">
         <f>SUM(G35+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>3561</v>
       </c>
       <c r="I36" s="38">
         <f t="shared" si="1"/>
@@ -3323,7 +3670,7 @@
       <c r="F37" s="27"/>
       <c r="G37" s="27">
         <f>SUM(G36+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>3561</v>
       </c>
       <c r="I37" s="35">
         <f t="shared" si="1"/>
@@ -3342,7 +3689,7 @@
       <c r="F38" s="27"/>
       <c r="G38" s="27">
         <f>SUM(G37+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>3561</v>
       </c>
       <c r="I38" s="38">
         <f t="shared" si="1"/>
@@ -3361,7 +3708,7 @@
       <c r="F39" s="27"/>
       <c r="G39" s="27">
         <f>SUM(G38+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>3561</v>
       </c>
       <c r="I39" s="35">
         <f t="shared" si="1"/>
@@ -3380,7 +3727,7 @@
       <c r="F40" s="27"/>
       <c r="G40" s="27">
         <f>SUM(G39+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>3561</v>
       </c>
       <c r="I40" s="38">
         <f t="shared" si="1"/>
@@ -3399,7 +3746,7 @@
       <c r="F41" s="27"/>
       <c r="G41" s="27">
         <f>SUM(G40+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>3561</v>
       </c>
       <c r="I41" s="35">
         <f t="shared" si="1"/>
@@ -3418,7 +3765,7 @@
       <c r="F42" s="27"/>
       <c r="G42" s="27">
         <f>SUM(G41+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>3561</v>
       </c>
       <c r="I42" s="38">
         <f t="shared" si="1"/>
@@ -3437,7 +3784,7 @@
       <c r="F43" s="27"/>
       <c r="G43" s="27">
         <f>SUM(G42+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>3561</v>
       </c>
       <c r="I43" s="35">
         <f t="shared" si="1"/>
@@ -3456,7 +3803,7 @@
       <c r="F44" s="27"/>
       <c r="G44" s="27">
         <f>SUM(G43+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>3561</v>
       </c>
       <c r="I44" s="38">
         <f t="shared" si="1"/>
@@ -3475,7 +3822,7 @@
       <c r="F45" s="27"/>
       <c r="G45" s="27">
         <f>SUM(G44+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>3561</v>
       </c>
       <c r="I45" s="35">
         <f t="shared" si="1"/>
@@ -3494,7 +3841,7 @@
       <c r="F46" s="27"/>
       <c r="G46" s="27">
         <f>SUM(G45+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>3561</v>
       </c>
       <c r="I46" s="38">
         <f t="shared" si="1"/>
@@ -3513,7 +3860,7 @@
       <c r="F47" s="27"/>
       <c r="G47" s="27">
         <f>SUM(G46+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>3561</v>
       </c>
       <c r="I47" s="35">
         <f t="shared" si="1"/>
@@ -3532,7 +3879,7 @@
       <c r="F48" s="27"/>
       <c r="G48" s="27">
         <f>SUM(G47+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>3561</v>
       </c>
       <c r="I48" s="38">
         <f t="shared" si="1"/>
@@ -3551,7 +3898,7 @@
       <c r="F49" s="27"/>
       <c r="G49" s="27">
         <f>SUM(G48+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>1182</v>
+        <v>3561</v>
       </c>
       <c r="I49" s="39">
         <f t="shared" si="1"/>
@@ -3580,7 +3927,7 @@
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="800"/>
+        <cfvo type="num" val="9000"/>
         <color rgb="FF008AEF"/>
       </dataBar>
       <extLst>
@@ -3594,7 +3941,7 @@
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="800"/>
+        <cfvo type="num" val="2500"/>
         <color rgb="FFFFB628"/>
       </dataBar>
       <extLst>
@@ -3608,7 +3955,7 @@
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
-        <cfvo type="num" val="800"/>
+        <cfvo type="num" val="5000"/>
         <color rgb="FFFF555A"/>
       </dataBar>
       <extLst>
@@ -3681,7 +4028,7 @@
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>800</xm:f>
+                <xm:f>9000</xm:f>
               </x14:cfvo>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
@@ -3696,7 +4043,7 @@
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>800</xm:f>
+                <xm:f>2500</xm:f>
               </x14:cfvo>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
@@ -3711,7 +4058,7 @@
                 <xm:f>0</xm:f>
               </x14:cfvo>
               <x14:cfvo type="num">
-                <xm:f>800</xm:f>
+                <xm:f>5000</xm:f>
               </x14:cfvo>
               <x14:negativeFillColor rgb="FFFF0000"/>
               <x14:axisColor rgb="FF000000"/>
@@ -6882,7 +7229,7 @@
       <c r="L12" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="M12" s="82" t="s">
+      <c r="M12" s="80" t="s">
         <v>272</v>
       </c>
     </row>
@@ -6907,15 +7254,15 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="83">
+      <c r="K13" s="81">
         <f>SUM(F2:F42)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="83">
+      <c r="L13" s="81">
         <f>SUM(Table1454[Savings Balance])</f>
         <v>0</v>
       </c>
-      <c r="M13" s="84">
+      <c r="M13" s="82">
         <f>SUM(1921-1400)</f>
         <v>521</v>
       </c>
@@ -7179,10 +7526,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="74" t="s">
+      <c r="K25" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="74"/>
+      <c r="L25" s="83"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -7835,6 +8182,105 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FB53FF-1D16-4D60-A1FC-7DC763C82DCE}">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="88" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="86" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="86" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" s="87">
+        <v>12000</v>
+      </c>
+      <c r="E1" s="90" t="s">
+        <v>304</v>
+      </c>
+      <c r="F1" s="90" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="85" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="86">
+        <v>14155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="88">
+        <v>1500</v>
+      </c>
+      <c r="D4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E4" s="86">
+        <v>4062</v>
+      </c>
+      <c r="F4" s="86">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B5" s="88">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="88">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" s="88">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8" s="89">
+        <f>SUM(B4:B7)</f>
+        <v>8000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A3C360-8CEB-45EC-AF04-B700F7EDF221}">
   <sheetPr>
@@ -7842,8 +8288,8 @@
   </sheetPr>
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7944,7 +8390,7 @@
         <v>87</v>
       </c>
       <c r="I3" s="34">
-        <f t="shared" ref="I3:I49" si="0">SUM(K10)</f>
+        <f t="shared" ref="I3:I48" si="0">SUM(K10)</f>
         <v>0</v>
       </c>
       <c r="J3" s="5"/>
@@ -8036,7 +8482,7 @@
         <v>14155</v>
       </c>
       <c r="M5">
-        <v>10000</v>
+        <v>9800</v>
       </c>
       <c r="N5">
         <v>4000</v>
@@ -8081,7 +8527,7 @@
         <v>8749</v>
       </c>
       <c r="M6">
-        <v>800</v>
+        <v>3300</v>
       </c>
       <c r="O6" s="5"/>
     </row>
@@ -8123,7 +8569,7 @@
         <v>2072</v>
       </c>
       <c r="M7">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="O7" s="5"/>
     </row>
@@ -8165,7 +8611,7 @@
         <v>4724</v>
       </c>
       <c r="M8">
-        <v>800</v>
+        <v>2500</v>
       </c>
       <c r="O8" s="5"/>
     </row>
@@ -8717,10 +9163,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="74" t="s">
+      <c r="K25" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="74"/>
+      <c r="L25" s="83"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -8862,20 +9308,20 @@
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
-      <c r="B31" s="76">
+      <c r="B31" s="74">
         <v>45213</v>
       </c>
-      <c r="C31" s="77" t="s">
+      <c r="C31" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="77" t="s">
+      <c r="D31" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="78">
+      <c r="E31" s="76">
         <v>6405</v>
       </c>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78">
+      <c r="F31" s="76"/>
+      <c r="G31" s="76">
         <f>SUM(G30+Table145411[[#This Row],[Income]]-Table145411[[#This Row],[Debits]])</f>
         <v>6497</v>
       </c>
@@ -9371,7 +9817,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="75">
+      <c r="A50" s="26">
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
@@ -9399,7 +9845,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="75">
+      <c r="A51" s="26">
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
@@ -9427,7 +9873,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="75">
+      <c r="A52" s="26">
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
@@ -9455,7 +9901,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="75">
+      <c r="A53" s="26">
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
@@ -9483,7 +9929,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="75">
+      <c r="A54" s="26">
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
@@ -9511,7 +9957,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="75">
+      <c r="A55" s="26">
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
@@ -9536,7 +9982,7 @@
       <c r="I55" s="35"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="75">
+      <c r="A56" s="26">
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
@@ -9564,7 +10010,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="75">
+      <c r="A57" s="26">
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
@@ -9592,7 +10038,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="75">
+      <c r="A58" s="26">
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
@@ -9620,7 +10066,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="75">
+      <c r="A59" s="26">
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
@@ -9648,24 +10094,24 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="75">
+      <c r="A60" s="26">
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
-      <c r="B60" s="76">
+      <c r="B60" s="74">
         <v>45227</v>
       </c>
-      <c r="C60" s="77" t="s">
+      <c r="C60" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="D60" s="77" t="s">
+      <c r="D60" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="E60" s="78">
+      <c r="E60" s="76">
         <v>7000</v>
       </c>
-      <c r="F60" s="78"/>
-      <c r="G60" s="78">
+      <c r="F60" s="76"/>
+      <c r="G60" s="76">
         <f>SUM(G59+Table145411[[#This Row],[Income]]-Table145411[[#This Row],[Debits]])</f>
         <v>9493</v>
       </c>
@@ -9676,7 +10122,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="75">
+      <c r="A61" s="26">
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
@@ -9704,7 +10150,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="75">
+      <c r="A62" s="26">
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
@@ -9732,24 +10178,24 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="75">
+      <c r="A63" s="26">
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
-      <c r="B63" s="79">
+      <c r="B63" s="77">
         <v>45228</v>
       </c>
-      <c r="C63" s="80" t="s">
+      <c r="C63" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="D63" s="80" t="s">
+      <c r="D63" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81">
+      <c r="E63" s="79"/>
+      <c r="F63" s="79">
         <v>2500</v>
       </c>
-      <c r="G63" s="81">
+      <c r="G63" s="79">
         <f>SUM(G62+Table145411[[#This Row],[Income]]-Table145411[[#This Row],[Debits]])</f>
         <v>5143</v>
       </c>
@@ -9760,7 +10206,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="75">
+      <c r="A64" s="26">
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
@@ -9788,7 +10234,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="75">
+      <c r="A65" s="26">
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
@@ -9816,7 +10262,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="75">
+      <c r="A66" s="26">
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
@@ -9844,7 +10290,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="75">
+      <c r="A67" s="26">
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>10</v>
       </c>
@@ -9872,7 +10318,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="75">
+      <c r="A68" s="26">
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -9892,7 +10338,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="75">
+      <c r="A69" s="26">
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -9912,7 +10358,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="75">
+      <c r="A70" s="26">
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -9932,7 +10378,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="75">
+      <c r="A71" s="26">
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -9952,7 +10398,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="75">
+      <c r="A72" s="26">
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -9976,7 +10422,7 @@
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="75">
+      <c r="A73" s="26">
         <f>MONTH(Table145411[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -10197,7 +10643,7 @@
   </sheetPr>
   <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
@@ -11072,10 +11518,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="74" t="s">
+      <c r="K25" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="74"/>
+      <c r="L25" s="83"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -13205,10 +13651,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="74" t="s">
+      <c r="K25" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="74"/>
+      <c r="L25" s="83"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -13869,7 +14315,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14007,7 +14453,7 @@
       </c>
       <c r="J4" s="5"/>
       <c r="K4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L4" t="s">
         <v>12</v>
@@ -14055,7 +14501,7 @@
       </c>
       <c r="L5">
         <f>SUMIFS(Table14549[[#All],[Income]],Table14549[[#All],[Month]],K4,Table14549[[#All],[Category]],K5)</f>
-        <v>0</v>
+        <v>1350</v>
       </c>
       <c r="M5">
         <v>10000</v>
@@ -14099,7 +14545,7 @@
       </c>
       <c r="L6">
         <f>SUMIFS(Table14549[[#All],[Debits]],Table14549[[#All],[Month]],K4, Table14549[[#All],[Category]],K6)</f>
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="M6">
         <v>800</v>
@@ -14140,7 +14586,7 @@
       </c>
       <c r="L7">
         <f>SUMIFS(Table14549[[#All],[Debits]],Table14549[[#All],[Month]],K4, Table14549[[#All],[Category]],K7)</f>
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="M7">
         <v>800</v>
@@ -14182,7 +14628,7 @@
       </c>
       <c r="L8">
         <f>SUMIFS(Table14549[[#All],[Debits]],Table14549[[#All],[Month]],K4, Table14549[[#All],[Category]],K8)</f>
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="M8">
         <v>800</v>
@@ -14666,10 +15112,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="74" t="s">
+      <c r="K25" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="74"/>
+      <c r="L25" s="83"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -15329,7 +15775,7 @@
   </sheetPr>
   <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
@@ -16201,10 +16647,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="74" t="s">
+      <c r="K25" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="74"/>
+      <c r="L25" s="83"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -18222,10 +18668,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="74" t="s">
+      <c r="K23" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="L23" s="74"/>
+      <c r="L23" s="83"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="54">

--- a/PERSONAL BUSINESS/BUDGET 2023.xlsx
+++ b/PERSONAL BUSINESS/BUDGET 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Creative Cloud Files\Desktop\PERSONAL BUSINESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CBCF8C-CE22-4BD8-B632-784166FB493C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E852F697-6E80-4EF4-B736-CFE2AA75231A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="316">
   <si>
     <t>Month</t>
   </si>
@@ -978,13 +978,46 @@
     <t>october</t>
   </si>
   <si>
-    <t>nov</t>
-  </si>
-  <si>
-    <t>QUOTA</t>
-  </si>
-  <si>
     <t>SALARY</t>
+  </si>
+  <si>
+    <t>nov 1/2</t>
+  </si>
+  <si>
+    <t>nov whole</t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>QUOTA NEEDED</t>
+  </si>
+  <si>
+    <t>CALL SAVINGS</t>
+  </si>
+  <si>
+    <t>MOTOR LIABILITY</t>
+  </si>
+  <si>
+    <t>BUDGET</t>
+  </si>
+  <si>
+    <t>LIABILITY IN YEARS</t>
+  </si>
+  <si>
+    <t>PURE SAVINGS</t>
+  </si>
+  <si>
+    <t>INVESTMENT/BUSINESS</t>
+  </si>
+  <si>
+    <t>EMERGENCY</t>
+  </si>
+  <si>
+    <t>LIABLITY EMERGENCY</t>
+  </si>
+  <si>
+    <t>NEED WALLET</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1398,16 +1431,28 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3364,10 +3409,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="83" t="s">
+      <c r="K25" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="83"/>
+      <c r="L25" s="89"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -7526,10 +7571,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="83" t="s">
+      <c r="K25" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="83"/>
+      <c r="L25" s="89"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -8187,94 +8232,241 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="88" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" style="86" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="86" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="87" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="23" style="85" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="85" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="83" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="87">
+      <c r="B1" s="86">
         <v>12000</v>
       </c>
-      <c r="E1" s="90" t="s">
-        <v>304</v>
-      </c>
-      <c r="F1" s="90" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="91" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" s="92" t="s">
+        <v>302</v>
+      </c>
+      <c r="G1" s="92" t="s">
+        <v>307</v>
+      </c>
+      <c r="H1" s="92" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="93"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="s">
         <v>296</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="93" t="s">
         <v>301</v>
       </c>
-      <c r="E3" s="86">
+      <c r="F3" s="94">
         <v>14155</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="94"/>
+      <c r="H3" s="93"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>298</v>
       </c>
-      <c r="B4" s="88">
+      <c r="B4" s="87">
         <v>1500</v>
       </c>
-      <c r="D4" t="s">
-        <v>302</v>
-      </c>
-      <c r="E4" s="86">
+      <c r="D4" s="5"/>
+      <c r="E4" s="93" t="s">
+        <v>303</v>
+      </c>
+      <c r="F4" s="94">
         <v>4062</v>
       </c>
-      <c r="F4" s="86">
+      <c r="G4" s="94">
         <v>2000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="94">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" s="87">
+        <v>500</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="93" t="s">
+        <v>304</v>
+      </c>
+      <c r="F5" s="94"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>299</v>
       </c>
-      <c r="B5" s="88">
+      <c r="B6" s="87">
         <v>3000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>297</v>
       </c>
-      <c r="B6" s="88">
+      <c r="B7" s="87">
         <v>500</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>294</v>
       </c>
-      <c r="B7" s="88">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="B8" s="87">
+        <v>2500</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="B8" s="89">
-        <f>SUM(B4:B7)</f>
+      <c r="B9" s="88">
+        <f>SUM(B4:B8)</f>
         <v>8000</v>
       </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B12" s="87">
+        <v>5000</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="87">
+        <v>1000</v>
+      </c>
+      <c r="C13" t="s">
+        <v>315</v>
+      </c>
+      <c r="D13" s="90"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B14" s="87">
+        <v>1500</v>
+      </c>
+      <c r="C14" t="s">
+        <v>315</v>
+      </c>
+      <c r="D14" s="90"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>313</v>
+      </c>
+      <c r="B15" s="87">
+        <v>500</v>
+      </c>
+      <c r="C15" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" s="90"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>314</v>
+      </c>
+      <c r="B16" s="87">
+        <v>500</v>
+      </c>
+      <c r="C16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D16" s="90"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>309</v>
+      </c>
+      <c r="B17" s="87">
+        <f>SUM(B12:B16)</f>
+        <v>8500</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9163,10 +9355,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="83" t="s">
+      <c r="K25" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="83"/>
+      <c r="L25" s="89"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -11518,10 +11710,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="83" t="s">
+      <c r="K25" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="83"/>
+      <c r="L25" s="89"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -13651,10 +13843,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="83" t="s">
+      <c r="K25" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="83"/>
+      <c r="L25" s="89"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -15112,10 +15304,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="83" t="s">
+      <c r="K25" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="83"/>
+      <c r="L25" s="89"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -16647,10 +16839,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="83" t="s">
+      <c r="K25" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="83"/>
+      <c r="L25" s="89"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -18668,10 +18860,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="83" t="s">
+      <c r="K23" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="L23" s="83"/>
+      <c r="L23" s="89"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="54">

--- a/PERSONAL BUSINESS/BUDGET 2023.xlsx
+++ b/PERSONAL BUSINESS/BUDGET 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Creative Cloud Files\Desktop\PERSONAL BUSINESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E852F697-6E80-4EF4-B736-CFE2AA75231A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC1D177-768C-4262-95A3-97DFA00617FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="November" sheetId="16" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="334">
   <si>
     <t>Month</t>
   </si>
@@ -990,9 +990,6 @@
     <t>MONTH</t>
   </si>
   <si>
-    <t>QUOTA NEEDED</t>
-  </si>
-  <si>
     <t>CALL SAVINGS</t>
   </si>
   <si>
@@ -1018,6 +1015,63 @@
   </si>
   <si>
     <t>NEED WALLET</t>
+  </si>
+  <si>
+    <t>dec 1/2</t>
+  </si>
+  <si>
+    <t>dec whole</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>penalty work</t>
+  </si>
+  <si>
+    <t>motor buy</t>
+  </si>
+  <si>
+    <t>mine stuff</t>
+  </si>
+  <si>
+    <t>trops</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">load </t>
+  </si>
+  <si>
+    <t>earn shoes</t>
+  </si>
+  <si>
+    <t>bball</t>
+  </si>
+  <si>
+    <t>milktea/kape</t>
+  </si>
+  <si>
+    <t>libre coworker</t>
+  </si>
+  <si>
+    <t>paid</t>
+  </si>
+  <si>
+    <t>QUOTA PENDING</t>
+  </si>
+  <si>
+    <t>QUOTA NEED</t>
+  </si>
+  <si>
+    <t>CASHFLOW</t>
+  </si>
+  <si>
+    <t>OTHER INCOME</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1086,7 @@
     <numFmt numFmtId="166" formatCode="[$PHP]\ #,##0.00"/>
     <numFmt numFmtId="167" formatCode="[$₱-464]#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1067,8 +1121,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1171,6 +1241,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1231,11 +1318,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1437,24 +1525,51 @@
     <xf numFmtId="167" fontId="0" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1976,8 +2091,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{3D700328-EEF0-4606-AB20-1459CEBC7012}" name="Table145413" displayName="Table145413" ref="A1:I49" totalsRowShown="0" dataDxfId="109">
-  <autoFilter ref="A1:I49" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{3D700328-EEF0-4606-AB20-1459CEBC7012}" name="Table145413" displayName="Table145413" ref="A1:I132" totalsRowShown="0" dataDxfId="109">
+  <autoFilter ref="A1:I132" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B697104A-21B4-4B52-8046-2AB228398322}" name="Month" dataDxfId="108">
       <calculatedColumnFormula>MONTH(Table145413[[#This Row],[Date]])</calculatedColumnFormula>
@@ -2531,10 +2646,10 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O132"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2724,7 +2839,7 @@
       </c>
       <c r="L5">
         <f>SUMIFS(Table145413[[#All],[Income]],Table145413[[#All],[Month]],K4,Table145413[[#All],[Category]],K5)</f>
-        <v>4562</v>
+        <v>5762</v>
       </c>
       <c r="M5">
         <v>14155</v>
@@ -2769,7 +2884,7 @@
       </c>
       <c r="L6">
         <f>SUMIFS(Table145413[[#All],[Debits]],Table145413[[#All],[Month]],K4, Table145413[[#All],[Category]],K6)</f>
-        <v>2904</v>
+        <v>4132</v>
       </c>
       <c r="M6">
         <v>9000</v>
@@ -2811,7 +2926,7 @@
       </c>
       <c r="L7">
         <f>SUMIFS(Table145413[[#All],[Debits]],Table145413[[#All],[Month]],K4, Table145413[[#All],[Category]],K7)</f>
-        <v>2083</v>
+        <v>2746</v>
       </c>
       <c r="M7">
         <v>2500</v>
@@ -2853,7 +2968,7 @@
       </c>
       <c r="L8">
         <f>SUMIFS(Table145413[[#All],[Debits]],Table145413[[#All],[Month]],K4, Table145413[[#All],[Category]],K8)</f>
-        <v>614</v>
+        <v>1215</v>
       </c>
       <c r="M8">
         <v>5000</v>
@@ -3049,7 +3164,7 @@
       </c>
       <c r="K13" s="2">
         <f>SUM(F2:F42)</f>
-        <v>5601</v>
+        <v>7081</v>
       </c>
       <c r="L13" s="37">
         <f>SUM(Table145413[Savings Balance])</f>
@@ -3409,10 +3524,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="89" t="s">
+      <c r="K25" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="89"/>
+      <c r="L25" s="93"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -3687,16 +3802,24 @@
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B36" s="25">
+        <v>45246</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
+      <c r="F36" s="27">
+        <v>188</v>
+      </c>
       <c r="G36" s="27">
         <f>SUM(G35+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>3561</v>
+        <v>3373</v>
       </c>
       <c r="I36" s="38">
         <f t="shared" si="1"/>
@@ -3706,16 +3829,24 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B37" s="25">
+        <v>45246</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
+      <c r="F37" s="27">
+        <v>40</v>
+      </c>
       <c r="G37" s="27">
         <f>SUM(G36+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>3561</v>
+        <v>3333</v>
       </c>
       <c r="I37" s="35">
         <f t="shared" si="1"/>
@@ -3725,16 +3856,24 @@
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B38" s="25">
+        <v>45246</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
+      <c r="F38" s="27">
+        <v>888</v>
+      </c>
       <c r="G38" s="27">
         <f>SUM(G37+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>3561</v>
+        <v>2445</v>
       </c>
       <c r="I38" s="38">
         <f t="shared" si="1"/>
@@ -3744,16 +3883,24 @@
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
+        <v>11</v>
+      </c>
+      <c r="B39" s="25">
+        <v>45246</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>11</v>
+      </c>
       <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
+      <c r="F39" s="27">
+        <v>162</v>
+      </c>
       <c r="G39" s="27">
         <f>SUM(G38+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>3561</v>
+        <v>2283</v>
       </c>
       <c r="I39" s="35">
         <f t="shared" si="1"/>
@@ -3763,16 +3910,24 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="B40" s="25">
+        <v>45248</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>11</v>
+      </c>
       <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
+      <c r="F40" s="27">
+        <v>90</v>
+      </c>
       <c r="G40" s="27">
         <f>SUM(G39+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>3561</v>
+        <v>2193</v>
       </c>
       <c r="I40" s="38">
         <f t="shared" si="1"/>
@@ -3782,16 +3937,24 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B41" s="25">
+        <v>45248</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
+      <c r="F41" s="27">
+        <v>12</v>
+      </c>
       <c r="G41" s="27">
         <f>SUM(G40+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>3561</v>
+        <v>2181</v>
       </c>
       <c r="I41" s="35">
         <f t="shared" si="1"/>
@@ -3801,16 +3964,24 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="B42" s="25">
+        <v>45250</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
+      <c r="F42" s="27">
+        <v>100</v>
+      </c>
       <c r="G42" s="27">
         <f>SUM(G41+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>3561</v>
+        <v>2081</v>
       </c>
       <c r="I42" s="38">
         <f t="shared" si="1"/>
@@ -3820,16 +3991,24 @@
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B43" s="25">
+        <v>45251</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
+      <c r="F43" s="27">
+        <v>50</v>
+      </c>
       <c r="G43" s="27">
         <f>SUM(G42+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>3561</v>
+        <v>2031</v>
       </c>
       <c r="I43" s="35">
         <f t="shared" si="1"/>
@@ -3839,16 +4018,24 @@
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B44" s="25">
+        <v>45253</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
+      <c r="F44" s="27">
+        <v>100</v>
+      </c>
       <c r="G44" s="27">
         <f>SUM(G43+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>3561</v>
+        <v>1931</v>
       </c>
       <c r="I44" s="38">
         <f t="shared" si="1"/>
@@ -3858,16 +4045,24 @@
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B45" s="25">
+        <v>45253</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
+      <c r="F45" s="27">
+        <v>250</v>
+      </c>
       <c r="G45" s="27">
         <f>SUM(G44+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>3561</v>
+        <v>1681</v>
       </c>
       <c r="I45" s="35">
         <f t="shared" si="1"/>
@@ -3877,16 +4072,24 @@
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B46" s="25">
+        <v>45255</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
+      <c r="F46" s="27">
+        <v>100</v>
+      </c>
       <c r="G46" s="27">
         <f>SUM(G45+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>3561</v>
+        <v>1581</v>
       </c>
       <c r="I46" s="38">
         <f t="shared" si="1"/>
@@ -3896,16 +4099,24 @@
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B47" s="25">
+        <v>45255</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
+      <c r="F47" s="27">
+        <v>100</v>
+      </c>
       <c r="G47" s="27">
         <f>SUM(G46+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>3561</v>
+        <v>1481</v>
       </c>
       <c r="I47" s="35">
         <f t="shared" si="1"/>
@@ -3915,16 +4126,24 @@
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B48" s="25">
+        <v>45256</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D48" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
+      <c r="F48" s="27">
+        <v>25</v>
+      </c>
       <c r="G48" s="27">
         <f>SUM(G47+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>3561</v>
+        <v>1456</v>
       </c>
       <c r="I48" s="38">
         <f t="shared" si="1"/>
@@ -3934,19 +4153,1743 @@
     <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
-        <v>1</v>
-      </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
+        <v>11</v>
+      </c>
+      <c r="B49" s="25">
+        <v>45257</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>11</v>
+      </c>
       <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
+      <c r="F49" s="27">
+        <v>59</v>
+      </c>
       <c r="G49" s="27">
         <f>SUM(G48+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
-        <v>3561</v>
+        <v>1397</v>
       </c>
       <c r="I49" s="39">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>11</v>
+      </c>
+      <c r="B50" s="25">
+        <v>45257</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="27">
+        <v>1200</v>
+      </c>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27">
+        <f>SUM(G49+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2597</v>
+      </c>
+      <c r="H50" s="27"/>
+      <c r="I50" s="35">
+        <f t="shared" ref="I50:I113" si="2">SUM(K57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>11</v>
+      </c>
+      <c r="B51" s="25">
+        <v>45257</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="27"/>
+      <c r="F51" s="27">
+        <v>68</v>
+      </c>
+      <c r="G51" s="27">
+        <f>SUM(G50+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2529</v>
+      </c>
+      <c r="H51" s="27"/>
+      <c r="I51" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>11</v>
+      </c>
+      <c r="B52" s="25">
+        <v>45257</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D52" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27">
+        <v>50</v>
+      </c>
+      <c r="G52" s="27">
+        <f>SUM(G51+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2479</v>
+      </c>
+      <c r="H52" s="27"/>
+      <c r="I52" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>11</v>
+      </c>
+      <c r="B53" s="25">
+        <v>45257</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27">
+        <v>10</v>
+      </c>
+      <c r="G53" s="27">
+        <f>SUM(G52+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2469</v>
+      </c>
+      <c r="H53" s="27"/>
+      <c r="I53" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>11</v>
+      </c>
+      <c r="B54" s="25">
+        <v>45257</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="D54" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27">
+        <v>50</v>
+      </c>
+      <c r="G54" s="27">
+        <f>SUM(G53+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2419</v>
+      </c>
+      <c r="H54" s="27"/>
+      <c r="I54" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>11</v>
+      </c>
+      <c r="B55" s="25">
+        <v>45258</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27">
+        <v>50</v>
+      </c>
+      <c r="G55" s="27">
+        <f>SUM(G54+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2369</v>
+      </c>
+      <c r="H55" s="27"/>
+      <c r="I55" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>11</v>
+      </c>
+      <c r="B56" s="25">
+        <v>45259</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="27"/>
+      <c r="F56" s="27">
+        <v>100</v>
+      </c>
+      <c r="G56" s="27">
+        <f>SUM(G55+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H56" s="27"/>
+      <c r="I56" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B57" s="25"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27">
+        <f>SUM(G56+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H57" s="27"/>
+      <c r="I57" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B58" s="25"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27">
+        <f>SUM(G57+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H58" s="27"/>
+      <c r="I58" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B59" s="25"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27">
+        <f>SUM(G58+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H59" s="27"/>
+      <c r="I59" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B60" s="25"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27">
+        <f>SUM(G59+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H60" s="27"/>
+      <c r="I60" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B61" s="25"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27">
+        <f>SUM(G60+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H61" s="27"/>
+      <c r="I61" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B62" s="25"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27">
+        <f>SUM(G61+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H62" s="27"/>
+      <c r="I62" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B63" s="25"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27">
+        <f>SUM(G62+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H63" s="27"/>
+      <c r="I63" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B64" s="25"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27">
+        <f>SUM(G63+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H64" s="27"/>
+      <c r="I64" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B65" s="25"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27">
+        <f>SUM(G64+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H65" s="27"/>
+      <c r="I65" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B66" s="25"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27">
+        <f>SUM(G65+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H66" s="27"/>
+      <c r="I66" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B67" s="25"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="27"/>
+      <c r="G67" s="27">
+        <f>SUM(G66+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H67" s="27"/>
+      <c r="I67" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B68" s="25"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="27"/>
+      <c r="G68" s="27">
+        <f>SUM(G67+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H68" s="27"/>
+      <c r="I68" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B69" s="25"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27">
+        <f>SUM(G68+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H69" s="27"/>
+      <c r="I69" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B70" s="25"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27">
+        <f>SUM(G69+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H70" s="27"/>
+      <c r="I70" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B71" s="25"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27">
+        <f>SUM(G70+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H71" s="27"/>
+      <c r="I71" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B72" s="25"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27">
+        <f>SUM(G71+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H72" s="27"/>
+      <c r="I72" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B73" s="25"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27">
+        <f>SUM(G72+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H73" s="27"/>
+      <c r="I73" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B74" s="25"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27">
+        <f>SUM(G73+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H74" s="27"/>
+      <c r="I74" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B75" s="25"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27">
+        <f>SUM(G74+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H75" s="27"/>
+      <c r="I75" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B76" s="25"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="27">
+        <f>SUM(G75+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H76" s="27"/>
+      <c r="I76" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B77" s="25"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="27"/>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27">
+        <f>SUM(G76+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H77" s="27"/>
+      <c r="I77" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B78" s="25"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27">
+        <f>SUM(G77+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H78" s="27"/>
+      <c r="I78" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B79" s="25"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="27"/>
+      <c r="G79" s="27">
+        <f>SUM(G78+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H79" s="27"/>
+      <c r="I79" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B80" s="25"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27">
+        <f>SUM(G79+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H80" s="27"/>
+      <c r="I80" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B81" s="25"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27">
+        <f>SUM(G80+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H81" s="27"/>
+      <c r="I81" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B82" s="25"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27">
+        <f>SUM(G81+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H82" s="27"/>
+      <c r="I82" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B83" s="25"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27">
+        <f>SUM(G82+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H83" s="27"/>
+      <c r="I83" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B84" s="25"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27">
+        <f>SUM(G83+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H84" s="27"/>
+      <c r="I84" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B85" s="25"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27">
+        <f>SUM(G84+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H85" s="27"/>
+      <c r="I85" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B86" s="25"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27">
+        <f>SUM(G85+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H86" s="27"/>
+      <c r="I86" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B87" s="25"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27">
+        <f>SUM(G86+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H87" s="27"/>
+      <c r="I87" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B88" s="25"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27">
+        <f>SUM(G87+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H88" s="27"/>
+      <c r="I88" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B89" s="25"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="26"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27">
+        <f>SUM(G88+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H89" s="27"/>
+      <c r="I89" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B90" s="25"/>
+      <c r="C90" s="26"/>
+      <c r="D90" s="26"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27">
+        <f>SUM(G89+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H90" s="27"/>
+      <c r="I90" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B91" s="25"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="27"/>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27">
+        <f>SUM(G90+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H91" s="27"/>
+      <c r="I91" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B92" s="25"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="27"/>
+      <c r="G92" s="27">
+        <f>SUM(G91+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H92" s="27"/>
+      <c r="I92" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B93" s="25"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="26"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="27"/>
+      <c r="G93" s="27">
+        <f>SUM(G92+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H93" s="27"/>
+      <c r="I93" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B94" s="25"/>
+      <c r="C94" s="26"/>
+      <c r="D94" s="26"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="27"/>
+      <c r="G94" s="27">
+        <f>SUM(G93+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H94" s="27"/>
+      <c r="I94" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B95" s="25"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="27"/>
+      <c r="G95" s="27">
+        <f>SUM(G94+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H95" s="27"/>
+      <c r="I95" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B96" s="25"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27">
+        <f>SUM(G95+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H96" s="27"/>
+      <c r="I96" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B97" s="25"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="27"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27">
+        <f>SUM(G96+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H97" s="27"/>
+      <c r="I97" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B98" s="25"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27">
+        <f>SUM(G97+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H98" s="27"/>
+      <c r="I98" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B99" s="25"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27">
+        <f>SUM(G98+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H99" s="27"/>
+      <c r="I99" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B100" s="25"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27">
+        <f>SUM(G99+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H100" s="27"/>
+      <c r="I100" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B101" s="25"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="26"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27">
+        <f>SUM(G100+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H101" s="27"/>
+      <c r="I101" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B102" s="25"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="26"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="27"/>
+      <c r="G102" s="27">
+        <f>SUM(G101+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H102" s="27"/>
+      <c r="I102" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B103" s="25"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="27"/>
+      <c r="G103" s="27">
+        <f>SUM(G102+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H103" s="27"/>
+      <c r="I103" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B104" s="25"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27">
+        <f>SUM(G103+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H104" s="27"/>
+      <c r="I104" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B105" s="25"/>
+      <c r="C105" s="26"/>
+      <c r="D105" s="26"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="27"/>
+      <c r="G105" s="27">
+        <f>SUM(G104+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H105" s="27"/>
+      <c r="I105" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B106" s="25"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="26"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="27"/>
+      <c r="G106" s="27">
+        <f>SUM(G105+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H106" s="27"/>
+      <c r="I106" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B107" s="25"/>
+      <c r="C107" s="26"/>
+      <c r="D107" s="26"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="27"/>
+      <c r="G107" s="27">
+        <f>SUM(G106+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H107" s="27"/>
+      <c r="I107" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B108" s="25"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="26"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27">
+        <f>SUM(G107+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H108" s="27"/>
+      <c r="I108" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B109" s="25"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="26"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27">
+        <f>SUM(G108+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H109" s="27"/>
+      <c r="I109" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B110" s="25"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27">
+        <f>SUM(G109+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H110" s="27"/>
+      <c r="I110" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B111" s="25"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="27"/>
+      <c r="F111" s="27"/>
+      <c r="G111" s="27">
+        <f>SUM(G110+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H111" s="27"/>
+      <c r="I111" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B112" s="25"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="27"/>
+      <c r="G112" s="27">
+        <f>SUM(G111+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H112" s="27"/>
+      <c r="I112" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B113" s="25"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="27"/>
+      <c r="G113" s="27">
+        <f>SUM(G112+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H113" s="27"/>
+      <c r="I113" s="35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B114" s="25"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27">
+        <f>SUM(G113+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H114" s="27"/>
+      <c r="I114" s="35">
+        <f t="shared" ref="I114:I132" si="3">SUM(K121)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B115" s="25"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="26"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="27">
+        <f>SUM(G114+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H115" s="27"/>
+      <c r="I115" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B116" s="25"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27">
+        <f>SUM(G115+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H116" s="27"/>
+      <c r="I116" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B117" s="25"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="27"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="27">
+        <f>SUM(G116+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H117" s="27"/>
+      <c r="I117" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B118" s="25"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="26"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="27">
+        <f>SUM(G117+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H118" s="27"/>
+      <c r="I118" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B119" s="25"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="26"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27">
+        <f>SUM(G118+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H119" s="27"/>
+      <c r="I119" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B120" s="25"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="27"/>
+      <c r="G120" s="27">
+        <f>SUM(G119+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H120" s="27"/>
+      <c r="I120" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B121" s="25"/>
+      <c r="C121" s="26"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="27"/>
+      <c r="G121" s="27">
+        <f>SUM(G120+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H121" s="27"/>
+      <c r="I121" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B122" s="25"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="27"/>
+      <c r="G122" s="27">
+        <f>SUM(G121+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H122" s="27"/>
+      <c r="I122" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B123" s="25"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="27"/>
+      <c r="F123" s="27"/>
+      <c r="G123" s="27">
+        <f>SUM(G122+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H123" s="27"/>
+      <c r="I123" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B124" s="25"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="27"/>
+      <c r="F124" s="27"/>
+      <c r="G124" s="27">
+        <f>SUM(G123+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H124" s="27"/>
+      <c r="I124" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B125" s="25"/>
+      <c r="C125" s="26"/>
+      <c r="D125" s="26"/>
+      <c r="E125" s="27"/>
+      <c r="F125" s="27"/>
+      <c r="G125" s="27">
+        <f>SUM(G124+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H125" s="27"/>
+      <c r="I125" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B126" s="25"/>
+      <c r="C126" s="26"/>
+      <c r="D126" s="26"/>
+      <c r="E126" s="27"/>
+      <c r="F126" s="27"/>
+      <c r="G126" s="27">
+        <f>SUM(G125+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H126" s="27"/>
+      <c r="I126" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B127" s="25"/>
+      <c r="C127" s="26"/>
+      <c r="D127" s="26"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="27">
+        <f>SUM(G126+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H127" s="27"/>
+      <c r="I127" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B128" s="25"/>
+      <c r="C128" s="26"/>
+      <c r="D128" s="26"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="27"/>
+      <c r="G128" s="27">
+        <f>SUM(G127+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H128" s="27"/>
+      <c r="I128" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B129" s="25"/>
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
+      <c r="E129" s="27"/>
+      <c r="F129" s="27"/>
+      <c r="G129" s="27">
+        <f>SUM(G128+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H129" s="27"/>
+      <c r="I129" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B130" s="25"/>
+      <c r="C130" s="26"/>
+      <c r="D130" s="26"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="27"/>
+      <c r="G130" s="27">
+        <f>SUM(G129+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H130" s="27"/>
+      <c r="I130" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B131" s="25"/>
+      <c r="C131" s="26"/>
+      <c r="D131" s="26"/>
+      <c r="E131" s="27"/>
+      <c r="F131" s="27"/>
+      <c r="G131" s="27">
+        <f>SUM(G130+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H131" s="27"/>
+      <c r="I131" s="35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="97">
+        <f>MONTH(Table145413[[#This Row],[Date]])</f>
+        <v>1</v>
+      </c>
+      <c r="B132" s="25"/>
+      <c r="C132" s="26"/>
+      <c r="D132" s="26"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="27"/>
+      <c r="G132" s="27">
+        <f>SUM(G131+Table145413[[#This Row],[Income]]-Table145413[[#This Row],[Debits]])</f>
+        <v>2269</v>
+      </c>
+      <c r="H132" s="27"/>
+      <c r="I132" s="35">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -7571,10 +9514,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="89" t="s">
+      <c r="K25" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="89"/>
+      <c r="L25" s="93"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -8232,10 +10175,10 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8246,10 +10189,14 @@
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="23" style="85" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" style="85" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="85" customWidth="1"/>
+    <col min="8" max="8" width="17" style="92" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" style="87" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" style="85" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="83" t="s">
         <v>295</v>
       </c>
@@ -8257,41 +10204,60 @@
         <v>12000</v>
       </c>
       <c r="D1" s="5"/>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="94">
+        <v>2023</v>
+      </c>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+    </row>
+    <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+      <c r="E2" s="102" t="s">
         <v>305</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F2" s="103" t="s">
         <v>302</v>
       </c>
-      <c r="G1" s="92" t="s">
-        <v>307</v>
-      </c>
-      <c r="H1" s="92" t="s">
+      <c r="G2" s="103" t="s">
+        <v>333</v>
+      </c>
+      <c r="H2" s="103" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D2" s="5"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="93"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="104" t="s">
+        <v>330</v>
+      </c>
+      <c r="J2" s="104" t="s">
+        <v>332</v>
+      </c>
+      <c r="K2" s="104" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
         <v>296</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="93" t="s">
+      <c r="E3" s="90" t="s">
         <v>301</v>
       </c>
-      <c r="F3" s="94">
+      <c r="F3" s="91">
         <v>14155</v>
       </c>
-      <c r="G3" s="94"/>
-      <c r="H3" s="93"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="91"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="100">
+        <f>SUM(F3+G3-H3)</f>
+        <v>14155</v>
+      </c>
+      <c r="K3" s="85"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>298</v>
       </c>
@@ -8299,35 +10265,58 @@
         <v>1500</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="90" t="s">
         <v>303</v>
       </c>
-      <c r="F4" s="94">
+      <c r="F4" s="91">
         <v>4062</v>
       </c>
-      <c r="G4" s="94">
+      <c r="G4" s="85">
+        <v>1700</v>
+      </c>
+      <c r="H4" s="91">
         <v>2000</v>
       </c>
-      <c r="H4" s="94">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="101">
+        <f>SUM(H4+H5-K4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="100">
+        <f>SUM(F4+G4-H4)</f>
+        <v>3762</v>
+      </c>
+      <c r="K4" s="98">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B5" s="87">
         <v>500</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="90" t="s">
         <v>304</v>
       </c>
-      <c r="F5" s="94"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="91">
+        <v>5986</v>
+      </c>
+      <c r="G5" s="85">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="91">
+        <v>6000</v>
+      </c>
+      <c r="I5" s="101"/>
+      <c r="J5" s="100">
+        <f t="shared" ref="J5:J13" si="0">SUM(F5+G5-H5)</f>
+        <v>986</v>
+      </c>
+      <c r="K5" s="98"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>299</v>
       </c>
@@ -8335,12 +10324,23 @@
         <v>3000</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="91" t="s">
+        <v>315</v>
+      </c>
+      <c r="H6" s="85"/>
+      <c r="I6" s="101">
+        <f>SUM(H6+H7-K6)</f>
+        <v>-8000</v>
+      </c>
+      <c r="J6" s="100">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="99">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>297</v>
       </c>
@@ -8348,8 +10348,18 @@
         <v>500</v>
       </c>
       <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="91" t="s">
+        <v>316</v>
+      </c>
+      <c r="H7" s="85"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="100">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="99"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>294</v>
       </c>
@@ -8357,8 +10367,14 @@
         <v>2500</v>
       </c>
       <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="85"/>
+      <c r="I8" s="92">
+        <v>16000</v>
+      </c>
+      <c r="J8" s="100"/>
+      <c r="K8" s="85"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>300</v>
       </c>
@@ -8367,73 +10383,78 @@
         <v>8000</v>
       </c>
       <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" s="100"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" s="100"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" s="100"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B12" s="87">
         <v>5000</v>
       </c>
       <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12" s="100"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B13" s="87">
         <v>1000</v>
       </c>
       <c r="C13" t="s">
-        <v>315</v>
-      </c>
-      <c r="D13" s="90"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="D13" s="89"/>
+      <c r="J13" s="100"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B14" s="87">
         <v>1500</v>
       </c>
       <c r="C14" t="s">
-        <v>315</v>
-      </c>
-      <c r="D14" s="90"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D14" s="89"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="95" t="s">
+        <v>312</v>
+      </c>
+      <c r="B15" s="96">
+        <v>500</v>
+      </c>
+      <c r="C15" s="95" t="s">
+        <v>314</v>
+      </c>
+      <c r="D15" s="89"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>313</v>
-      </c>
-      <c r="B15" s="87">
-        <v>500</v>
-      </c>
-      <c r="C15" t="s">
-        <v>315</v>
-      </c>
-      <c r="D15" s="90"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>314</v>
       </c>
       <c r="B16" s="87">
         <v>500</v>
       </c>
       <c r="C16" t="s">
-        <v>315</v>
-      </c>
-      <c r="D16" s="90"/>
+        <v>314</v>
+      </c>
+      <c r="D16" s="89"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B17" s="87">
         <f>SUM(B12:B16)</f>
@@ -8464,12 +10485,20 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
       <c r="D25" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="E1:K1"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K6:K7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9355,10 +11384,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="89" t="s">
+      <c r="K25" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="89"/>
+      <c r="L25" s="93"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -11710,10 +13739,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="89" t="s">
+      <c r="K25" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="89"/>
+      <c r="L25" s="93"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -13843,10 +15872,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="89" t="s">
+      <c r="K25" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="89"/>
+      <c r="L25" s="93"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -15304,10 +17333,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="89" t="s">
+      <c r="K25" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="89"/>
+      <c r="L25" s="93"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -16839,10 +18868,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="89" t="s">
+      <c r="K25" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="89"/>
+      <c r="L25" s="93"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -18860,10 +20889,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="89" t="s">
+      <c r="K23" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="L23" s="89"/>
+      <c r="L23" s="93"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="54">

--- a/PERSONAL BUSINESS/BUDGET 2023.xlsx
+++ b/PERSONAL BUSINESS/BUDGET 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Creative Cloud Files\Desktop\PERSONAL BUSINESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC1D177-768C-4262-95A3-97DFA00617FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7217E88-DAAD-4B68-997E-1F96E7085AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="November" sheetId="16" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="339">
   <si>
     <t>Month</t>
   </si>
@@ -1072,6 +1072,21 @@
   </si>
   <si>
     <t>OTHER INCOME</t>
+  </si>
+  <si>
+    <t>deo</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>uno</t>
+  </si>
+  <si>
+    <t>cimb bank</t>
+  </si>
+  <si>
+    <t>invest bitcoin</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1101,7 @@
     <numFmt numFmtId="166" formatCode="[$PHP]\ #,##0.00"/>
     <numFmt numFmtId="167" formatCode="[$₱-464]#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1133,6 +1148,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1323,7 +1345,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1535,28 +1557,10 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="19" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1566,6 +1570,28 @@
     </xf>
     <xf numFmtId="167" fontId="6" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2648,7 +2674,7 @@
   </sheetPr>
   <dimension ref="A1:O132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B13" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -3524,10 +3550,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="93" t="s">
+      <c r="K25" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="93"/>
+      <c r="L25" s="100"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -4178,7 +4204,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="97">
+      <c r="A50" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -4206,7 +4232,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="97">
+      <c r="A51" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -4234,7 +4260,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="97">
+      <c r="A52" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -4262,7 +4288,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="97">
+      <c r="A53" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -4290,7 +4316,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="97">
+      <c r="A54" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -4318,7 +4344,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="97">
+      <c r="A55" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -4346,7 +4372,7 @@
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="97">
+      <c r="A56" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>11</v>
       </c>
@@ -4374,7 +4400,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="97">
+      <c r="A57" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4394,7 +4420,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="97">
+      <c r="A58" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4414,7 +4440,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="97">
+      <c r="A59" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4434,7 +4460,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="97">
+      <c r="A60" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4454,7 +4480,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="97">
+      <c r="A61" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4474,7 +4500,7 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="97">
+      <c r="A62" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4494,7 +4520,7 @@
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="97">
+      <c r="A63" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4514,7 +4540,7 @@
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="97">
+      <c r="A64" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4534,7 +4560,7 @@
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="97">
+      <c r="A65" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4554,7 +4580,7 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="97">
+      <c r="A66" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4574,7 +4600,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="97">
+      <c r="A67" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4594,7 +4620,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="97">
+      <c r="A68" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4614,7 +4640,7 @@
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="97">
+      <c r="A69" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4634,7 +4660,7 @@
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="97">
+      <c r="A70" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4654,7 +4680,7 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="97">
+      <c r="A71" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4674,7 +4700,7 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="97">
+      <c r="A72" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4694,7 +4720,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="97">
+      <c r="A73" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4714,7 +4740,7 @@
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="97">
+      <c r="A74" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4734,7 +4760,7 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="97">
+      <c r="A75" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4754,7 +4780,7 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="97">
+      <c r="A76" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4774,7 +4800,7 @@
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="97">
+      <c r="A77" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4794,7 +4820,7 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="97">
+      <c r="A78" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4814,7 +4840,7 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="97">
+      <c r="A79" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4834,7 +4860,7 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="97">
+      <c r="A80" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4854,7 +4880,7 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="97">
+      <c r="A81" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4874,7 +4900,7 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="97">
+      <c r="A82" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4894,7 +4920,7 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="97">
+      <c r="A83" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4914,7 +4940,7 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="97">
+      <c r="A84" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4934,7 +4960,7 @@
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="97">
+      <c r="A85" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4954,7 +4980,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="97">
+      <c r="A86" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4974,7 +5000,7 @@
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="97">
+      <c r="A87" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -4994,7 +5020,7 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="97">
+      <c r="A88" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5014,7 +5040,7 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="97">
+      <c r="A89" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5034,7 +5060,7 @@
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="97">
+      <c r="A90" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5054,7 +5080,7 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="97">
+      <c r="A91" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5074,7 +5100,7 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="97">
+      <c r="A92" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5094,7 +5120,7 @@
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="97">
+      <c r="A93" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5114,7 +5140,7 @@
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="97">
+      <c r="A94" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5134,7 +5160,7 @@
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="97">
+      <c r="A95" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5154,7 +5180,7 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="97">
+      <c r="A96" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5174,7 +5200,7 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="97">
+      <c r="A97" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5194,7 +5220,7 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="97">
+      <c r="A98" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5214,7 +5240,7 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="97">
+      <c r="A99" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5234,7 +5260,7 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="97">
+      <c r="A100" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5254,7 +5280,7 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="97">
+      <c r="A101" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5274,7 +5300,7 @@
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="97">
+      <c r="A102" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5294,7 +5320,7 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="97">
+      <c r="A103" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5314,7 +5340,7 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="97">
+      <c r="A104" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5334,7 +5360,7 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="97">
+      <c r="A105" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5354,7 +5380,7 @@
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="97">
+      <c r="A106" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5374,7 +5400,7 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="97">
+      <c r="A107" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5394,7 +5420,7 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="97">
+      <c r="A108" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5414,7 +5440,7 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="97">
+      <c r="A109" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5434,7 +5460,7 @@
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="97">
+      <c r="A110" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5454,7 +5480,7 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="97">
+      <c r="A111" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5474,7 +5500,7 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="97">
+      <c r="A112" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5494,7 +5520,7 @@
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="97">
+      <c r="A113" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5514,7 +5540,7 @@
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="97">
+      <c r="A114" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5534,7 +5560,7 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="97">
+      <c r="A115" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5554,7 +5580,7 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="97">
+      <c r="A116" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5574,7 +5600,7 @@
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="97">
+      <c r="A117" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5594,7 +5620,7 @@
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="97">
+      <c r="A118" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5614,7 +5640,7 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="97">
+      <c r="A119" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5634,7 +5660,7 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="97">
+      <c r="A120" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5654,7 +5680,7 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="97">
+      <c r="A121" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5674,7 +5700,7 @@
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="97">
+      <c r="A122" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5694,7 +5720,7 @@
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="97">
+      <c r="A123" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5714,7 +5740,7 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="97">
+      <c r="A124" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5734,7 +5760,7 @@
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="97">
+      <c r="A125" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5754,7 +5780,7 @@
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A126" s="97">
+      <c r="A126" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5774,7 +5800,7 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="97">
+      <c r="A127" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5794,7 +5820,7 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="97">
+      <c r="A128" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5814,7 +5840,7 @@
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="97">
+      <c r="A129" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5834,7 +5860,7 @@
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="97">
+      <c r="A130" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5854,7 +5880,7 @@
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="97">
+      <c r="A131" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -5874,7 +5900,7 @@
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="97">
+      <c r="A132" s="26">
         <f>MONTH(Table145413[[#This Row],[Date]])</f>
         <v>1</v>
       </c>
@@ -9514,10 +9540,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="93" t="s">
+      <c r="K25" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="93"/>
+      <c r="L25" s="100"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -10177,8 +10203,8 @@
   </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10188,9 +10214,9 @@
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="23" style="85" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="85" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="91" customWidth="1"/>
     <col min="7" max="7" width="15.140625" style="85" customWidth="1"/>
-    <col min="8" max="8" width="17" style="92" customWidth="1"/>
+    <col min="8" max="8" width="17" style="106" customWidth="1"/>
     <col min="9" max="9" width="19.5703125" style="87" customWidth="1"/>
     <col min="10" max="10" width="20.42578125" style="85" customWidth="1"/>
     <col min="11" max="11" width="14.85546875" customWidth="1"/>
@@ -10204,37 +10230,37 @@
         <v>12000</v>
       </c>
       <c r="D1" s="5"/>
-      <c r="E1" s="94">
+      <c r="E1" s="102">
         <v>2023</v>
       </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
     </row>
     <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D2" s="5"/>
-      <c r="E2" s="102" t="s">
+      <c r="E2" s="96" t="s">
         <v>305</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="97" t="s">
         <v>302</v>
       </c>
-      <c r="G2" s="103" t="s">
+      <c r="G2" s="97" t="s">
         <v>333</v>
       </c>
-      <c r="H2" s="103" t="s">
+      <c r="H2" s="97" t="s">
         <v>306</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="98" t="s">
         <v>330</v>
       </c>
-      <c r="J2" s="104" t="s">
+      <c r="J2" s="98" t="s">
         <v>332</v>
       </c>
-      <c r="K2" s="104" t="s">
+      <c r="K2" s="98" t="s">
         <v>331</v>
       </c>
     </row>
@@ -10249,9 +10275,9 @@
       <c r="F3" s="91">
         <v>14155</v>
       </c>
-      <c r="H3" s="91"/>
+      <c r="H3" s="105"/>
       <c r="I3" s="92"/>
-      <c r="J3" s="100">
+      <c r="J3" s="95">
         <f>SUM(F3+G3-H3)</f>
         <v>14155</v>
       </c>
@@ -10274,18 +10300,18 @@
       <c r="G4" s="85">
         <v>1700</v>
       </c>
-      <c r="H4" s="91">
+      <c r="H4" s="105">
         <v>2000</v>
       </c>
       <c r="I4" s="101">
         <f>SUM(H4+H5-K4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="100">
+      <c r="J4" s="95">
         <f>SUM(F4+G4-H4)</f>
         <v>3762</v>
       </c>
-      <c r="K4" s="98">
+      <c r="K4" s="103">
         <v>8000</v>
       </c>
     </row>
@@ -10306,15 +10332,15 @@
       <c r="G5" s="85">
         <v>1000</v>
       </c>
-      <c r="H5" s="91">
+      <c r="H5" s="105">
         <v>6000</v>
       </c>
       <c r="I5" s="101"/>
-      <c r="J5" s="100">
-        <f t="shared" ref="J5:J13" si="0">SUM(F5+G5-H5)</f>
+      <c r="J5" s="95">
+        <f t="shared" ref="J5:J7" si="0">SUM(F5+G5-H5)</f>
         <v>986</v>
       </c>
-      <c r="K5" s="98"/>
+      <c r="K5" s="103"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -10327,16 +10353,24 @@
       <c r="E6" s="91" t="s">
         <v>315</v>
       </c>
-      <c r="H6" s="85"/>
+      <c r="F6" s="91">
+        <v>8234</v>
+      </c>
+      <c r="G6" s="85">
+        <v>600</v>
+      </c>
+      <c r="H6" s="105">
+        <v>5000</v>
+      </c>
       <c r="I6" s="101">
         <f>SUM(H6+H7-K6)</f>
-        <v>-8000</v>
-      </c>
-      <c r="J6" s="100">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="99">
+        <v>-3000</v>
+      </c>
+      <c r="J6" s="95">
+        <f>SUM(F6+G6-H6)</f>
+        <v>3834</v>
+      </c>
+      <c r="K6" s="104">
         <v>8000</v>
       </c>
     </row>
@@ -10351,13 +10385,13 @@
       <c r="E7" s="91" t="s">
         <v>316</v>
       </c>
-      <c r="H7" s="85"/>
+      <c r="H7" s="105"/>
       <c r="I7" s="101"/>
-      <c r="J7" s="100">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="99"/>
+      <c r="J7" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="104"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -10367,11 +10401,11 @@
         <v>2500</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="H8" s="85"/>
+      <c r="H8" s="105"/>
       <c r="I8" s="92">
         <v>16000</v>
       </c>
-      <c r="J8" s="100"/>
+      <c r="J8" s="95"/>
       <c r="K8" s="85"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -10383,15 +10417,15 @@
         <v>8000</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="J9" s="100"/>
+      <c r="J9" s="95"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
-      <c r="J10" s="100"/>
+      <c r="J10" s="95"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="5"/>
-      <c r="J11" s="100"/>
+      <c r="J11" s="95"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -10401,7 +10435,12 @@
         <v>5000</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="J12" s="100"/>
+      <c r="E12" s="85" t="s">
+        <v>335</v>
+      </c>
+      <c r="F12" s="99"/>
+      <c r="G12" s="91"/>
+      <c r="J12" s="95"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -10414,7 +10453,12 @@
         <v>314</v>
       </c>
       <c r="D13" s="89"/>
-      <c r="J13" s="100"/>
+      <c r="E13" s="85" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" s="99"/>
+      <c r="G13" s="91"/>
+      <c r="J13" s="95"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -10427,18 +10471,25 @@
         <v>314</v>
       </c>
       <c r="D14" s="89"/>
+      <c r="E14" s="85" t="s">
+        <v>336</v>
+      </c>
+      <c r="F14" s="85"/>
+      <c r="G14" s="91"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="93" t="s">
         <v>312</v>
       </c>
-      <c r="B15" s="96">
+      <c r="B15" s="94">
         <v>500</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="93" t="s">
         <v>314</v>
       </c>
       <c r="D15" s="89"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="91"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -10451,6 +10502,13 @@
         <v>314</v>
       </c>
       <c r="D16" s="89"/>
+      <c r="E16" s="85" t="s">
+        <v>337</v>
+      </c>
+      <c r="F16" s="99"/>
+      <c r="G16" s="91" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -11384,10 +11442,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="93" t="s">
+      <c r="K25" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="93"/>
+      <c r="L25" s="100"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -13739,10 +13797,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="93" t="s">
+      <c r="K25" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="93"/>
+      <c r="L25" s="100"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -15872,10 +15930,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="93" t="s">
+      <c r="K25" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="93"/>
+      <c r="L25" s="100"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -17333,10 +17391,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="93" t="s">
+      <c r="K25" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="93"/>
+      <c r="L25" s="100"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -18868,10 +18926,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="93" t="s">
+      <c r="K25" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="93"/>
+      <c r="L25" s="100"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -20889,10 +20947,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="93" t="s">
+      <c r="K23" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="L23" s="93"/>
+      <c r="L23" s="100"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="54">

--- a/PERSONAL BUSINESS/BUDGET 2023.xlsx
+++ b/PERSONAL BUSINESS/BUDGET 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Creative Cloud Files\Desktop\PERSONAL BUSINESS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34A0354-A84A-435E-9003-602BB751F234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDA091A-0A10-4F48-8374-2DB3FF0FA296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QUOTA" sheetId="17" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="365">
   <si>
     <t>Month</t>
   </si>
@@ -1073,9 +1073,6 @@
   </si>
   <si>
     <t>OTHER INCOME</t>
-  </si>
-  <si>
-    <t>cash</t>
   </si>
   <si>
     <t>uno</t>
@@ -1668,14 +1665,8 @@
     <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="19" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1683,11 +1674,17 @@
     <xf numFmtId="167" fontId="0" fillId="20" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1696,14 +1693,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="120">
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2225,6 +2214,14 @@
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-[$₱-464]* #,##0.00_-;\-[$₱-464]* #,##0.00_-;_-[$₱-464]* &quot;-&quot;??_-;_-@_-"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2269,11 +2266,11 @@
     <tableColumn id="2" xr3:uid="{62B0CE6B-9ECA-4F28-A344-8DB03862A7F0}" name="Date" dataDxfId="117"/>
     <tableColumn id="3" xr3:uid="{BF68691A-3025-4E46-B681-A6A302F816B1}" name="Description" dataDxfId="116"/>
     <tableColumn id="4" xr3:uid="{B03F0CDB-A8B4-4D5D-AA48-7DB2BA73EF87}" name="Category" dataDxfId="115"/>
-    <tableColumn id="5" xr3:uid="{2450C52A-DF44-46C3-9C8B-3EEA6B18AD44}" name="Income" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{AD83966F-87C1-4283-A7A1-5645C1602C23}" name="Debits" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{38631307-9F1D-479E-A15E-1D9AF1607A1C}" name="Balance" dataDxfId="114"/>
-    <tableColumn id="8" xr3:uid="{F2AC8D61-3B0B-4A65-9A9A-77851F7330B9}" name="Month for Savings" dataDxfId="113"/>
-    <tableColumn id="9" xr3:uid="{7055F592-E982-49B2-B42C-F02B22FE90DA}" name="Savings Balance" dataDxfId="112">
+    <tableColumn id="5" xr3:uid="{2450C52A-DF44-46C3-9C8B-3EEA6B18AD44}" name="Income" dataDxfId="114"/>
+    <tableColumn id="6" xr3:uid="{AD83966F-87C1-4283-A7A1-5645C1602C23}" name="Debits" dataDxfId="113"/>
+    <tableColumn id="7" xr3:uid="{38631307-9F1D-479E-A15E-1D9AF1607A1C}" name="Balance" dataDxfId="112"/>
+    <tableColumn id="8" xr3:uid="{F2AC8D61-3B0B-4A65-9A9A-77851F7330B9}" name="Month for Savings" dataDxfId="111"/>
+    <tableColumn id="9" xr3:uid="{7055F592-E982-49B2-B42C-F02B22FE90DA}" name="Savings Balance" dataDxfId="110">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2282,20 +2279,20 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{10265E97-EDC2-479F-B12E-823C0161B925}" name="Table14543" displayName="Table14543" ref="A1:I49" totalsRowShown="0" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{10265E97-EDC2-479F-B12E-823C0161B925}" name="Table14543" displayName="Table14543" ref="A1:I49" totalsRowShown="0" dataDxfId="29">
   <autoFilter ref="A1:I49" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{F3498696-B7B2-4E1A-8054-B9E763EF3672}" name="Month" dataDxfId="30">
+    <tableColumn id="1" xr3:uid="{F3498696-B7B2-4E1A-8054-B9E763EF3672}" name="Month" dataDxfId="28">
       <calculatedColumnFormula>MONTH(Table14543[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DCB90096-3235-42A7-9FA2-A497B4110253}" name="Date" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{0B65F2E5-8190-4EF3-A591-EF9A15A13761}" name="Description" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{C90ED4C6-65BC-4114-B681-C1CB69377A58}" name="Category" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{502C1345-43D1-4244-9595-23CB3A0F2EA8}" name="Income" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{51881B59-02C3-40B4-9B06-8B76BF9A798C}" name="Debits" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{4C26C5AD-A38E-488A-BD9F-2BFB6F92D02A}" name="Balance" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{E5A7B637-1C8D-40A1-BA64-0D0900577951}" name="Month for Savings" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{7E867581-DA98-4395-8148-9533395639B4}" name="Savings Balance" dataDxfId="22">
+    <tableColumn id="2" xr3:uid="{DCB90096-3235-42A7-9FA2-A497B4110253}" name="Date" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{0B65F2E5-8190-4EF3-A591-EF9A15A13761}" name="Description" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{C90ED4C6-65BC-4114-B681-C1CB69377A58}" name="Category" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{502C1345-43D1-4244-9595-23CB3A0F2EA8}" name="Income" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{51881B59-02C3-40B4-9B06-8B76BF9A798C}" name="Debits" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{4C26C5AD-A38E-488A-BD9F-2BFB6F92D02A}" name="Balance" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{E5A7B637-1C8D-40A1-BA64-0D0900577951}" name="Month for Savings" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{7E867581-DA98-4395-8148-9533395639B4}" name="Savings Balance" dataDxfId="20">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2307,15 +2304,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1455" displayName="Table1455" ref="A1:G49" totalsRowShown="0">
   <autoFilter ref="A1:G49" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Month" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Month" dataDxfId="19">
       <calculatedColumnFormula>MONTH(Table1455[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Date" dataDxfId="18"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Description"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Category"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Income" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Debits" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Balance" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Income" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Debits" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Balance" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2325,35 +2322,35 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1458" displayName="Table1458" ref="A1:G52" totalsRowShown="0">
   <autoFilter ref="A1:G52" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Month" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Month" dataDxfId="14">
       <calculatedColumnFormula>MONTH(Table1458[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Category"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Income" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Debits" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Balance" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Income" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Debits" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Balance" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1454" displayName="Table1454" ref="A1:I49" totalsRowShown="0" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1454" displayName="Table1454" ref="A1:I49" totalsRowShown="0" dataDxfId="9">
   <autoFilter ref="A1:I49" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Month" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Month" dataDxfId="8">
       <calculatedColumnFormula>MONTH(Table1454[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Description" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Category" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Income" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Debits" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Balance" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Month for Savings" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Savings Balance" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Date" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Description" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Category" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Income" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Debits" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="Balance" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="Month for Savings" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="Savings Balance" dataDxfId="0">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2362,20 +2359,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{3D700328-EEF0-4606-AB20-1459CEBC7012}" name="Table145413" displayName="Table145413" ref="A1:I132" totalsRowShown="0" dataDxfId="111">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{3D700328-EEF0-4606-AB20-1459CEBC7012}" name="Table145413" displayName="Table145413" ref="A1:I132" totalsRowShown="0" dataDxfId="109">
   <autoFilter ref="A1:I132" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B697104A-21B4-4B52-8046-2AB228398322}" name="Month" dataDxfId="110">
+    <tableColumn id="1" xr3:uid="{B697104A-21B4-4B52-8046-2AB228398322}" name="Month" dataDxfId="108">
       <calculatedColumnFormula>MONTH(Table145413[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A138A46A-8629-483F-B9A0-2644257DFF90}" name="Date" dataDxfId="109"/>
-    <tableColumn id="3" xr3:uid="{FB9320A9-AACE-48D4-AA25-11A09135A2A9}" name="Description" dataDxfId="108"/>
-    <tableColumn id="4" xr3:uid="{7BA5992F-2867-4505-AE08-7A08AB031ADE}" name="Category" dataDxfId="107"/>
-    <tableColumn id="5" xr3:uid="{CC34E3D2-23F1-4480-A6C6-C68C3197F175}" name="Income" dataDxfId="106"/>
-    <tableColumn id="6" xr3:uid="{DF6B3420-220F-465A-86FD-EB13FDBED3FC}" name="Debits" dataDxfId="105"/>
-    <tableColumn id="7" xr3:uid="{FD7021AC-B827-4FA0-B9AB-9352E48F8B34}" name="Balance" dataDxfId="104"/>
-    <tableColumn id="8" xr3:uid="{2206692C-A62A-47AD-899F-75D5ED4C0D49}" name="Month for Savings" dataDxfId="103"/>
-    <tableColumn id="9" xr3:uid="{40B5A238-01BD-44E2-8AF3-F51C0A39D9DF}" name="Savings Balance" dataDxfId="102">
+    <tableColumn id="2" xr3:uid="{A138A46A-8629-483F-B9A0-2644257DFF90}" name="Date" dataDxfId="107"/>
+    <tableColumn id="3" xr3:uid="{FB9320A9-AACE-48D4-AA25-11A09135A2A9}" name="Description" dataDxfId="106"/>
+    <tableColumn id="4" xr3:uid="{7BA5992F-2867-4505-AE08-7A08AB031ADE}" name="Category" dataDxfId="105"/>
+    <tableColumn id="5" xr3:uid="{CC34E3D2-23F1-4480-A6C6-C68C3197F175}" name="Income" dataDxfId="104"/>
+    <tableColumn id="6" xr3:uid="{DF6B3420-220F-465A-86FD-EB13FDBED3FC}" name="Debits" dataDxfId="103"/>
+    <tableColumn id="7" xr3:uid="{FD7021AC-B827-4FA0-B9AB-9352E48F8B34}" name="Balance" dataDxfId="102"/>
+    <tableColumn id="8" xr3:uid="{2206692C-A62A-47AD-899F-75D5ED4C0D49}" name="Month for Savings" dataDxfId="101"/>
+    <tableColumn id="9" xr3:uid="{40B5A238-01BD-44E2-8AF3-F51C0A39D9DF}" name="Savings Balance" dataDxfId="100">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2384,20 +2381,20 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A3D21E48-5B69-4EF4-A431-A43CB89FF727}" name="Table145411" displayName="Table145411" ref="A1:I73" totalsRowShown="0" dataDxfId="101">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A3D21E48-5B69-4EF4-A431-A43CB89FF727}" name="Table145411" displayName="Table145411" ref="A1:I73" totalsRowShown="0" dataDxfId="99">
   <autoFilter ref="A1:I73" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{FA65A469-3BD5-4CD4-A9BE-C78F5416F0F5}" name="Month" dataDxfId="100">
+    <tableColumn id="1" xr3:uid="{FA65A469-3BD5-4CD4-A9BE-C78F5416F0F5}" name="Month" dataDxfId="98">
       <calculatedColumnFormula>MONTH(Table145411[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{415B598F-4B8E-4FDE-AB11-59439F144445}" name="Date" dataDxfId="99"/>
-    <tableColumn id="3" xr3:uid="{BACB319A-8935-48EB-A40A-E08306969B0F}" name="Description" dataDxfId="98"/>
-    <tableColumn id="4" xr3:uid="{C8AE8D6C-1620-425F-82AC-67F6CBF7BD7A}" name="Category" dataDxfId="97"/>
-    <tableColumn id="5" xr3:uid="{E3D4505C-CD25-4627-A0F7-E9BE49CBEC9A}" name="Income" dataDxfId="96"/>
-    <tableColumn id="6" xr3:uid="{104A5A9A-EA07-425C-B220-6F42FBA892F0}" name="Debits" dataDxfId="95"/>
-    <tableColumn id="7" xr3:uid="{051A20BC-BD5A-4DB9-895F-3B8B4C29A949}" name="Balance" dataDxfId="94"/>
-    <tableColumn id="8" xr3:uid="{473D0809-882D-449A-A2F1-251D66885BCB}" name="Month for Savings" dataDxfId="93"/>
-    <tableColumn id="9" xr3:uid="{5CEA2D70-4596-4727-95A1-51A5B7EC598A}" name="Savings Balance" dataDxfId="92">
+    <tableColumn id="2" xr3:uid="{415B598F-4B8E-4FDE-AB11-59439F144445}" name="Date" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{BACB319A-8935-48EB-A40A-E08306969B0F}" name="Description" dataDxfId="96"/>
+    <tableColumn id="4" xr3:uid="{C8AE8D6C-1620-425F-82AC-67F6CBF7BD7A}" name="Category" dataDxfId="95"/>
+    <tableColumn id="5" xr3:uid="{E3D4505C-CD25-4627-A0F7-E9BE49CBEC9A}" name="Income" dataDxfId="94"/>
+    <tableColumn id="6" xr3:uid="{104A5A9A-EA07-425C-B220-6F42FBA892F0}" name="Debits" dataDxfId="93"/>
+    <tableColumn id="7" xr3:uid="{051A20BC-BD5A-4DB9-895F-3B8B4C29A949}" name="Balance" dataDxfId="92"/>
+    <tableColumn id="8" xr3:uid="{473D0809-882D-449A-A2F1-251D66885BCB}" name="Month for Savings" dataDxfId="91"/>
+    <tableColumn id="9" xr3:uid="{5CEA2D70-4596-4727-95A1-51A5B7EC598A}" name="Savings Balance" dataDxfId="90">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2406,20 +2403,20 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{57C387B4-F479-4A68-83C6-3827DA05418C}" name="Table145410" displayName="Table145410" ref="A1:I73" totalsRowShown="0" dataDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{57C387B4-F479-4A68-83C6-3827DA05418C}" name="Table145410" displayName="Table145410" ref="A1:I73" totalsRowShown="0" dataDxfId="89">
   <autoFilter ref="A1:I73" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{16BBC92E-0A72-4512-A5DD-8503BE687CB4}" name="Month" dataDxfId="90">
+    <tableColumn id="1" xr3:uid="{16BBC92E-0A72-4512-A5DD-8503BE687CB4}" name="Month" dataDxfId="88">
       <calculatedColumnFormula>MONTH(Table145410[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{3D5B90CD-BAE5-4B3B-91DD-F48031CC29A4}" name="Date" dataDxfId="89"/>
-    <tableColumn id="3" xr3:uid="{EED3B27F-F2E3-4E0E-B8FF-58BE12DA46BB}" name="Description" dataDxfId="88"/>
-    <tableColumn id="4" xr3:uid="{6312F0ED-D934-4B41-89DC-AC693A952D8A}" name="Category" dataDxfId="87"/>
-    <tableColumn id="5" xr3:uid="{2103876E-E59C-47C6-B7D3-F631C8103F2F}" name="Income" dataDxfId="86"/>
-    <tableColumn id="6" xr3:uid="{0680F844-B969-438D-AFF2-94F78E13FE7A}" name="Debits" dataDxfId="85"/>
-    <tableColumn id="7" xr3:uid="{2BEEB7A1-E04A-48F7-A68A-FF2CFBCC0FF1}" name="Balance" dataDxfId="84"/>
-    <tableColumn id="8" xr3:uid="{38E6F2DF-F5DC-4472-B76B-0F06D00E9D42}" name="Month for Savings" dataDxfId="83"/>
-    <tableColumn id="9" xr3:uid="{3A3E9865-7E03-4F41-AC3C-B86242DFFF90}" name="Savings Balance" dataDxfId="82">
+    <tableColumn id="2" xr3:uid="{3D5B90CD-BAE5-4B3B-91DD-F48031CC29A4}" name="Date" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{EED3B27F-F2E3-4E0E-B8FF-58BE12DA46BB}" name="Description" dataDxfId="86"/>
+    <tableColumn id="4" xr3:uid="{6312F0ED-D934-4B41-89DC-AC693A952D8A}" name="Category" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{2103876E-E59C-47C6-B7D3-F631C8103F2F}" name="Income" dataDxfId="84"/>
+    <tableColumn id="6" xr3:uid="{0680F844-B969-438D-AFF2-94F78E13FE7A}" name="Debits" dataDxfId="83"/>
+    <tableColumn id="7" xr3:uid="{2BEEB7A1-E04A-48F7-A68A-FF2CFBCC0FF1}" name="Balance" dataDxfId="82"/>
+    <tableColumn id="8" xr3:uid="{38E6F2DF-F5DC-4472-B76B-0F06D00E9D42}" name="Month for Savings" dataDxfId="81"/>
+    <tableColumn id="9" xr3:uid="{3A3E9865-7E03-4F41-AC3C-B86242DFFF90}" name="Savings Balance" dataDxfId="80">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2428,20 +2425,20 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A4388F45-9023-46F6-B5A4-D3D68DF39259}" name="Table145412" displayName="Table145412" ref="A1:I49" totalsRowShown="0" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A4388F45-9023-46F6-B5A4-D3D68DF39259}" name="Table145412" displayName="Table145412" ref="A1:I49" totalsRowShown="0" dataDxfId="79">
   <autoFilter ref="A1:I49" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{17ACED23-DA02-4BF2-A8DD-C01534A9DAA7}" name="Month" dataDxfId="80">
+    <tableColumn id="1" xr3:uid="{17ACED23-DA02-4BF2-A8DD-C01534A9DAA7}" name="Month" dataDxfId="78">
       <calculatedColumnFormula>MONTH(Table145412[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{AE8E1816-FEDA-4D33-B0BE-081C3B49612D}" name="Date" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{6C344308-297A-43C0-A31B-5241FFB594F2}" name="Description" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{D0FBBD0A-016B-4151-A394-E845CBAC8928}" name="Category" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{0FF5BE46-E2F7-44A9-B3C1-71CC37BD9D63}" name="Income" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{E423D8A9-890B-4A6D-9B3F-37D76EDB6FC0}" name="Debits" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{499EE5AD-D8BA-4F1A-93C2-36CCCFA07F5B}" name="Balance" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{B6A77639-F979-40DA-8689-FB76E0A316F5}" name="Month for Savings" dataDxfId="73"/>
-    <tableColumn id="9" xr3:uid="{5AB60A72-C973-45F1-82C8-9C180F917521}" name="Savings Balance" dataDxfId="72">
+    <tableColumn id="2" xr3:uid="{AE8E1816-FEDA-4D33-B0BE-081C3B49612D}" name="Date" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{6C344308-297A-43C0-A31B-5241FFB594F2}" name="Description" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{D0FBBD0A-016B-4151-A394-E845CBAC8928}" name="Category" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{0FF5BE46-E2F7-44A9-B3C1-71CC37BD9D63}" name="Income" dataDxfId="74"/>
+    <tableColumn id="6" xr3:uid="{E423D8A9-890B-4A6D-9B3F-37D76EDB6FC0}" name="Debits" dataDxfId="73"/>
+    <tableColumn id="7" xr3:uid="{499EE5AD-D8BA-4F1A-93C2-36CCCFA07F5B}" name="Balance" dataDxfId="72"/>
+    <tableColumn id="8" xr3:uid="{B6A77639-F979-40DA-8689-FB76E0A316F5}" name="Month for Savings" dataDxfId="71"/>
+    <tableColumn id="9" xr3:uid="{5AB60A72-C973-45F1-82C8-9C180F917521}" name="Savings Balance" dataDxfId="70">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2450,20 +2447,20 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{840BC7C5-42EC-4A00-B86C-6D75E31821B4}" name="Table14549" displayName="Table14549" ref="A1:I49" totalsRowShown="0" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{840BC7C5-42EC-4A00-B86C-6D75E31821B4}" name="Table14549" displayName="Table14549" ref="A1:I49" totalsRowShown="0" dataDxfId="69">
   <autoFilter ref="A1:I49" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A5899E45-A1AD-438E-8C04-4809B35B66DB}" name="Month" dataDxfId="70">
+    <tableColumn id="1" xr3:uid="{A5899E45-A1AD-438E-8C04-4809B35B66DB}" name="Month" dataDxfId="68">
       <calculatedColumnFormula>MONTH(Table14549[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D38B047B-6499-4E6D-A1DF-3DDE583B403D}" name="Date" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{95411460-F2B2-46A8-898C-0D1CB24B44E7}" name="Description" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{A6F2159B-E0E7-4792-8AE9-1652D6903EFB}" name="Category" dataDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{647351B9-0FA7-4A2B-A85E-C4A8FF13EB44}" name="Income" dataDxfId="66"/>
-    <tableColumn id="6" xr3:uid="{25F4E89E-B145-4846-B8A1-54FB9270BB17}" name="Debits" dataDxfId="65"/>
-    <tableColumn id="7" xr3:uid="{2385595E-DB07-4602-8441-8BE64EE4D10A}" name="Balance" dataDxfId="64"/>
-    <tableColumn id="8" xr3:uid="{A5DAA906-AF2D-4A85-9A6F-2F2E0324BA6F}" name="Month for Savings" dataDxfId="63"/>
-    <tableColumn id="9" xr3:uid="{A49C9190-B837-4A2F-AAA4-F4CDB1BDB2DD}" name="Savings Balance" dataDxfId="62">
+    <tableColumn id="2" xr3:uid="{D38B047B-6499-4E6D-A1DF-3DDE583B403D}" name="Date" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{95411460-F2B2-46A8-898C-0D1CB24B44E7}" name="Description" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{A6F2159B-E0E7-4792-8AE9-1652D6903EFB}" name="Category" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{647351B9-0FA7-4A2B-A85E-C4A8FF13EB44}" name="Income" dataDxfId="64"/>
+    <tableColumn id="6" xr3:uid="{25F4E89E-B145-4846-B8A1-54FB9270BB17}" name="Debits" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{2385595E-DB07-4602-8441-8BE64EE4D10A}" name="Balance" dataDxfId="62"/>
+    <tableColumn id="8" xr3:uid="{A5DAA906-AF2D-4A85-9A6F-2F2E0324BA6F}" name="Month for Savings" dataDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{A49C9190-B837-4A2F-AAA4-F4CDB1BDB2DD}" name="Savings Balance" dataDxfId="60">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2472,20 +2469,20 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AE525568-F672-4A92-85D0-9D1023DE7A01}" name="Table14548" displayName="Table14548" ref="A1:I63" totalsRowShown="0" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AE525568-F672-4A92-85D0-9D1023DE7A01}" name="Table14548" displayName="Table14548" ref="A1:I63" totalsRowShown="0" dataDxfId="59">
   <autoFilter ref="A1:I63" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{B74A68BF-5F18-40BE-9DC8-7AAB5490A613}" name="Month" dataDxfId="60">
+    <tableColumn id="1" xr3:uid="{B74A68BF-5F18-40BE-9DC8-7AAB5490A613}" name="Month" dataDxfId="58">
       <calculatedColumnFormula>MONTH(Table14548[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{065BCCFE-C43A-41AB-B4E0-4C03F9C75A7A}" name="Date" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{8317177F-31C3-423B-A3D7-244E0D6DB701}" name="Description" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{3D6B9DFD-70D5-48C5-B2A8-F6BE2C25A321}" name="Category" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{A981147C-0662-4052-B864-D654D08960E1}" name="Income" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{5CCA7DCB-2197-4873-AFD4-74B3ED796F2B}" name="Debits" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{EEBDE90B-C10B-4E35-A17A-22F84445E41F}" name="Balance" dataDxfId="54"/>
-    <tableColumn id="8" xr3:uid="{9A4B5BF9-9C1F-4890-B960-7E449D45A302}" name="Month for Savings" dataDxfId="53"/>
-    <tableColumn id="9" xr3:uid="{AE750CED-6C12-49BC-ABE6-71051806BF98}" name="Savings Balance" dataDxfId="52">
+    <tableColumn id="2" xr3:uid="{065BCCFE-C43A-41AB-B4E0-4C03F9C75A7A}" name="Date" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{8317177F-31C3-423B-A3D7-244E0D6DB701}" name="Description" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{3D6B9DFD-70D5-48C5-B2A8-F6BE2C25A321}" name="Category" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{A981147C-0662-4052-B864-D654D08960E1}" name="Income" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{5CCA7DCB-2197-4873-AFD4-74B3ED796F2B}" name="Debits" dataDxfId="53"/>
+    <tableColumn id="7" xr3:uid="{EEBDE90B-C10B-4E35-A17A-22F84445E41F}" name="Balance" dataDxfId="52"/>
+    <tableColumn id="8" xr3:uid="{9A4B5BF9-9C1F-4890-B960-7E449D45A302}" name="Month for Savings" dataDxfId="51"/>
+    <tableColumn id="9" xr3:uid="{AE750CED-6C12-49BC-ABE6-71051806BF98}" name="Savings Balance" dataDxfId="50">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2494,20 +2491,20 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6A997058-3010-49BB-AB6D-620C72DD3613}" name="Table145467" displayName="Table145467" ref="A1:I49" totalsRowShown="0" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{6A997058-3010-49BB-AB6D-620C72DD3613}" name="Table145467" displayName="Table145467" ref="A1:I49" totalsRowShown="0" dataDxfId="49">
   <autoFilter ref="A1:I49" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{4942BF4B-BBB2-42FE-AE6E-DC39975A0585}" name="Month" dataDxfId="50">
+    <tableColumn id="1" xr3:uid="{4942BF4B-BBB2-42FE-AE6E-DC39975A0585}" name="Month" dataDxfId="48">
       <calculatedColumnFormula>MONTH(Table145467[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C03BF1B6-5BF5-4C97-AE15-CB80E2A72139}" name="Date" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{976567C0-A8A1-49E5-B711-DD2D258A8C9D}" name="Description" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{D2F94893-33CA-458A-9686-1EE8E7DA8A5B}" name="Category" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{10C86F8A-201E-493E-9050-43A2F85E7CF6}" name="Income" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{F79FDB7D-7BF1-4A99-BD6E-44DD0393C805}" name="Debits" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{E0CAF5FD-F6CC-471B-B1DD-D6D9D50AD369}" name="Balance" dataDxfId="44"/>
-    <tableColumn id="8" xr3:uid="{49BCF1B3-DE27-47A4-9F8A-008ACE1382CB}" name="Month for Savings" dataDxfId="43"/>
-    <tableColumn id="9" xr3:uid="{5B25FFCD-7C30-47EE-81FE-1CC6AB8450F7}" name="Savings Balance" dataDxfId="42">
+    <tableColumn id="2" xr3:uid="{C03BF1B6-5BF5-4C97-AE15-CB80E2A72139}" name="Date" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{976567C0-A8A1-49E5-B711-DD2D258A8C9D}" name="Description" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{D2F94893-33CA-458A-9686-1EE8E7DA8A5B}" name="Category" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{10C86F8A-201E-493E-9050-43A2F85E7CF6}" name="Income" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{F79FDB7D-7BF1-4A99-BD6E-44DD0393C805}" name="Debits" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{E0CAF5FD-F6CC-471B-B1DD-D6D9D50AD369}" name="Balance" dataDxfId="42"/>
+    <tableColumn id="8" xr3:uid="{49BCF1B3-DE27-47A4-9F8A-008ACE1382CB}" name="Month for Savings" dataDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{5B25FFCD-7C30-47EE-81FE-1CC6AB8450F7}" name="Savings Balance" dataDxfId="40">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2516,20 +2513,20 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F78A6626-0ECB-4761-94F1-5E34C061D16E}" name="Table14546" displayName="Table14546" ref="A1:I49" totalsRowShown="0" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F78A6626-0ECB-4761-94F1-5E34C061D16E}" name="Table14546" displayName="Table14546" ref="A1:I49" totalsRowShown="0" dataDxfId="39">
   <autoFilter ref="A1:I49" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{76392CED-406E-493F-AFDB-826D1CBFE8E0}" name="Month" dataDxfId="40">
+    <tableColumn id="1" xr3:uid="{76392CED-406E-493F-AFDB-826D1CBFE8E0}" name="Month" dataDxfId="38">
       <calculatedColumnFormula>MONTH(Table14546[[#This Row],[Date]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{4C7E220F-8EBA-40F4-8FE3-8857C16E13DF}" name="Date" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{5097F152-C30C-40BB-A5E0-4A9612F5B7BF}" name="Description" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{F0331F5E-B137-405B-993B-68FB0A342EF7}" name="Category" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{0D5D53CF-A386-4722-9130-16379B19CEF3}" name="Income" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{D44F1476-831E-4C59-919D-476B80977BC5}" name="Debits" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{3F58EAD0-7821-49C3-ABAF-62A25398F83B}" name="Balance" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{ACFC8E53-D247-452B-98C1-9FA884FF08FF}" name="Month for Savings" dataDxfId="33"/>
-    <tableColumn id="9" xr3:uid="{CE379B86-E512-4994-B613-CE65737DDBB7}" name="Savings Balance" dataDxfId="32">
+    <tableColumn id="2" xr3:uid="{4C7E220F-8EBA-40F4-8FE3-8857C16E13DF}" name="Date" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{5097F152-C30C-40BB-A5E0-4A9612F5B7BF}" name="Description" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{F0331F5E-B137-405B-993B-68FB0A342EF7}" name="Category" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{0D5D53CF-A386-4722-9130-16379B19CEF3}" name="Income" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{D44F1476-831E-4C59-919D-476B80977BC5}" name="Debits" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{3F58EAD0-7821-49C3-ABAF-62A25398F83B}" name="Balance" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{ACFC8E53-D247-452B-98C1-9FA884FF08FF}" name="Month for Savings" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{CE379B86-E512-4994-B613-CE65737DDBB7}" name="Savings Balance" dataDxfId="30">
       <calculatedColumnFormula>SUM(K9)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2839,8 +2836,8 @@
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2867,16 +2864,16 @@
         <v>12000</v>
       </c>
       <c r="D1" s="5"/>
-      <c r="E1" s="104">
+      <c r="E1" s="105">
         <v>2023</v>
       </c>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
     </row>
     <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="D2" s="5"/>
@@ -2902,7 +2899,7 @@
         <v>331</v>
       </c>
       <c r="L2" s="98" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2923,8 +2920,8 @@
         <v>14155</v>
       </c>
       <c r="K3" s="85"/>
-      <c r="L3" s="107">
-        <v>45289</v>
+      <c r="L3" s="106">
+        <v>45294</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2947,7 +2944,7 @@
       <c r="H4" s="100">
         <v>2000</v>
       </c>
-      <c r="I4" s="103">
+      <c r="I4" s="102">
         <f>SUM(H4+H5-K4)</f>
         <v>0</v>
       </c>
@@ -2955,10 +2952,10 @@
         <f>SUM(F4+G4-H4)</f>
         <v>3762</v>
       </c>
-      <c r="K4" s="105">
+      <c r="K4" s="103">
         <v>8000</v>
       </c>
-      <c r="L4" s="108"/>
+      <c r="L4" s="107"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2980,13 +2977,13 @@
       <c r="H5" s="100">
         <v>6000</v>
       </c>
-      <c r="I5" s="103"/>
+      <c r="I5" s="102"/>
       <c r="J5" s="95">
         <f t="shared" ref="J5:J7" si="0">SUM(F5+G5-H5)</f>
         <v>986</v>
       </c>
-      <c r="K5" s="105"/>
-      <c r="L5" s="108"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="107"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3008,18 +3005,18 @@
       <c r="H6" s="100">
         <v>3000</v>
       </c>
-      <c r="I6" s="103">
+      <c r="I6" s="102">
         <f>SUM(H6+H7-K6)</f>
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="J6" s="95">
         <f>SUM(F6+G6-H6)</f>
         <v>5834</v>
       </c>
-      <c r="K6" s="106">
+      <c r="K6" s="104">
         <v>8000</v>
       </c>
-      <c r="L6" s="108"/>
+      <c r="L6" s="107"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3032,14 +3029,22 @@
       <c r="E7" s="91" t="s">
         <v>316</v>
       </c>
-      <c r="H7" s="100"/>
-      <c r="I7" s="103"/>
+      <c r="F7" s="91">
+        <v>4813</v>
+      </c>
+      <c r="G7" s="85">
+        <v>100</v>
+      </c>
+      <c r="H7" s="100">
+        <v>5000</v>
+      </c>
+      <c r="I7" s="102"/>
       <c r="J7" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="106"/>
-      <c r="L7" s="108"/>
+        <v>-87</v>
+      </c>
+      <c r="K7" s="104"/>
+      <c r="L7" s="107"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3083,8 +3088,8 @@
         <v>5000</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="85" t="s">
-        <v>334</v>
+      <c r="E12" s="85">
+        <v>2460</v>
       </c>
       <c r="F12" s="99"/>
       <c r="G12" s="91"/>
@@ -3102,7 +3107,7 @@
       </c>
       <c r="D13" s="89"/>
       <c r="E13" s="85" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F13" s="99"/>
       <c r="G13" s="91"/>
@@ -3120,7 +3125,7 @@
       </c>
       <c r="D14" s="89"/>
       <c r="E14" s="85" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F14" s="85"/>
       <c r="G14" s="91"/>
@@ -3151,7 +3156,7 @@
       </c>
       <c r="D16" s="89"/>
       <c r="E16" s="85" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F16" s="99"/>
       <c r="G16" s="91"/>
@@ -8953,7 +8958,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9645,10 +9650,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="102" t="s">
+      <c r="K25" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="102"/>
+      <c r="L25" s="108"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -10308,8 +10313,8 @@
   </sheetPr>
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10390,7 +10395,7 @@
         <v>45261</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>9</v>
@@ -10515,7 +10520,7 @@
         <v>45264</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D6" s="26" t="s">
         <v>9</v>
@@ -10557,7 +10562,7 @@
         <v>45264</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>18</v>
@@ -10599,7 +10604,7 @@
         <v>45266</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D8" s="26" t="s">
         <v>11</v>
@@ -10680,7 +10685,7 @@
         <v>45267</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D10" s="26" t="s">
         <v>11</v>
@@ -10760,7 +10765,7 @@
         <v>45268</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>18</v>
@@ -10900,7 +10905,7 @@
         <v>45272</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>11</v>
@@ -10936,7 +10941,7 @@
         <v>45266</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D17" s="28" t="s">
         <v>9</v>
@@ -10999,7 +11004,7 @@
         <v>45275</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>11</v>
@@ -11030,7 +11035,7 @@
         <v>45275</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>4</v>
@@ -11088,7 +11093,7 @@
         <v>45275</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D22" s="26" t="s">
         <v>9</v>
@@ -11115,7 +11120,7 @@
         <v>45276</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D23" s="28" t="s">
         <v>4</v>
@@ -11186,10 +11191,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="102" t="s">
+      <c r="K25" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="102"/>
+      <c r="L25" s="108"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -11200,7 +11205,7 @@
         <v>45278</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D26" s="26" t="s">
         <v>9</v>
@@ -11227,7 +11232,7 @@
         <v>45279</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D27" s="26" t="s">
         <v>9</v>
@@ -11281,7 +11286,7 @@
         <v>45279</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D29" s="28" t="s">
         <v>4</v>
@@ -11308,7 +11313,7 @@
         <v>45279</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>9</v>
@@ -11362,7 +11367,7 @@
         <v>45279</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>4</v>
@@ -11389,7 +11394,7 @@
         <v>45281</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>4</v>
@@ -11416,7 +11421,7 @@
         <v>45281</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D34" s="26" t="s">
         <v>11</v>
@@ -11443,7 +11448,7 @@
         <v>45281</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D35" s="28" t="s">
         <v>11</v>
@@ -11470,7 +11475,7 @@
         <v>45281</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D36" s="26" t="s">
         <v>11</v>
@@ -11551,7 +11556,7 @@
         <v>45282</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D39" s="28" t="s">
         <v>11</v>
@@ -11578,7 +11583,7 @@
         <v>45282</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>11</v>
@@ -11605,7 +11610,7 @@
         <v>45282</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D41" s="26" t="s">
         <v>11</v>
@@ -11632,7 +11637,7 @@
         <v>45283</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>11</v>
@@ -11659,7 +11664,7 @@
         <v>45289</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D43" s="26" t="s">
         <v>18</v>
@@ -11686,7 +11691,7 @@
         <v>45289</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D44" s="26" t="s">
         <v>4</v>
@@ -12001,7 +12006,7 @@
   </sheetPr>
   <dimension ref="A1:O132"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
@@ -12876,10 +12881,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="102" t="s">
+      <c r="K25" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="102"/>
+      <c r="L25" s="108"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -16338,10 +16343,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="102" t="s">
+      <c r="K25" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="102"/>
+      <c r="L25" s="108"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -18693,10 +18698,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="102" t="s">
+      <c r="K25" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="102"/>
+      <c r="L25" s="108"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -20826,10 +20831,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K25" s="102" t="s">
+      <c r="K25" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="102"/>
+      <c r="L25" s="108"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -22287,10 +22292,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="102" t="s">
+      <c r="K25" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="102"/>
+      <c r="L25" s="108"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -23822,10 +23827,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K25" s="102" t="s">
+      <c r="K25" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="L25" s="102"/>
+      <c r="L25" s="108"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="26">
@@ -25843,10 +25848,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="102" t="s">
+      <c r="K23" s="108" t="s">
         <v>139</v>
       </c>
-      <c r="L23" s="102"/>
+      <c r="L23" s="108"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="54">
